--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -144,13 +144,13 @@
     <t>Notes/Bug ID</t>
   </si>
   <si>
-    <t>Opera 77.0.4054.203</t>
-  </si>
-  <si>
     <t>Passed</t>
   </si>
   <si>
     <t>Failed</t>
+  </si>
+  <si>
+    <t>Windows 10 Pro Opera 77.0.4054.203</t>
   </si>
 </sst>
 </file>
@@ -246,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -272,6 +272,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1055,14 +1061,14 @@
   <dimension ref="A3:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="40.42578125" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
@@ -1091,232 +1097,232 @@
         <v>38</v>
       </c>
       <c r="Z3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
-        <v>39</v>
+      <c r="C4" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
-        <v>40</v>
+      <c r="F4" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="G4" s="8"/>
       <c r="Z4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>1+A4</f>
         <v>2</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
-        <v>39</v>
+      <c r="C5" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
-        <v>41</v>
+      <c r="F5" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f t="shared" ref="A6:A18" si="0">1+A5</f>
         <v>3</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="8" t="s">
-        <v>39</v>
+      <c r="C6" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>40</v>
+      <c r="F6" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
-        <v>39</v>
+      <c r="C7" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
-        <v>40</v>
+      <c r="F7" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
-        <v>39</v>
+      <c r="C8" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>41</v>
+      <c r="F8" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
-        <v>39</v>
+      <c r="C9" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>39</v>
+      <c r="C10" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="8" t="s">
-        <v>39</v>
+      <c r="C11" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
-        <v>39</v>
+      <c r="C12" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
-        <v>39</v>
+      <c r="C13" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="8" t="s">
-        <v>39</v>
+      <c r="C14" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
-        <v>40</v>
+      <c r="F14" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="8" t="s">
-        <v>39</v>
+      <c r="C15" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
-        <v>39</v>
+      <c r="C16" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="8" t="s">
-        <v>39</v>
+      <c r="C17" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="8" t="s">
-        <v>39</v>
+      <c r="C18" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
-        <v>41</v>
+      <c r="F18" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="G18" s="8"/>
     </row>

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>Поле "Name:"</t>
   </si>
@@ -262,6 +262,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -272,12 +278,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -591,46 +591,46 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1061,7 +1061,7 @@
   <dimension ref="A3:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,12 +1105,12 @@
         <v>1</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="10" t="s">
         <v>39</v>
       </c>
       <c r="G4" s="8"/>
@@ -1124,12 +1124,12 @@
         <v>2</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="10" t="s">
         <v>40</v>
       </c>
       <c r="G5" s="8"/>
@@ -1140,12 +1140,12 @@
         <v>3</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="10" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="8"/>
@@ -1156,12 +1156,12 @@
         <v>4</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="10" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="8"/>
@@ -1172,12 +1172,12 @@
         <v>5</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="10" t="s">
         <v>40</v>
       </c>
       <c r="G8" s="8"/>
@@ -1188,12 +1188,14 @@
         <v>6</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -1202,12 +1204,12 @@
         <v>7</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -1216,12 +1218,12 @@
         <v>8</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="14"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -1230,12 +1232,12 @@
         <v>9</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="14"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -1244,12 +1246,12 @@
         <v>10</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="14"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -1258,12 +1260,12 @@
         <v>11</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="10" t="s">
         <v>39</v>
       </c>
       <c r="G14" s="8"/>
@@ -1274,12 +1276,12 @@
         <v>12</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="14"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -1288,12 +1290,12 @@
         <v>13</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="14"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1302,12 +1304,12 @@
         <v>14</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="14"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1316,12 +1318,12 @@
         <v>15</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="10" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="8"/>

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Требования к полям" sheetId="1" r:id="rId1"/>
     <sheet name="Name" sheetId="2" r:id="rId2"/>
+    <sheet name="Surname" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1060,7 +1061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -1344,4 +1345,16 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Требования к полям" sheetId="1" r:id="rId1"/>
     <sheet name="Name" sheetId="2" r:id="rId2"/>
-    <sheet name="Surname" sheetId="3" r:id="rId3"/>
+    <sheet name="Surname" sheetId="6" r:id="rId3"/>
+    <sheet name="Email" sheetId="7" r:id="rId4"/>
+    <sheet name="Все поля" sheetId="5" r:id="rId5"/>
+    <sheet name="Improve" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="252">
   <si>
     <t>Поле "Name:"</t>
   </si>
@@ -152,13 +155,670 @@
   </si>
   <si>
     <t>Windows 10 Pro Opera 77.0.4054.203</t>
+  </si>
+  <si>
+    <t>Тестирование поля "Name"</t>
+  </si>
+  <si>
+    <t>Чек-лист для тестирования формы регистрации "ITCareerToday"</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Petr
+Petrov
+petrov123@gmail.com
+parol?1Q</t>
+  </si>
+  <si>
+    <t>Заполнить все поля валидными данными и нажать кнопку "Submit".</t>
+  </si>
+  <si>
+    <t>Появляется сообщение об успешной регистрации "Success! Hello: Petr Petrov"</t>
+  </si>
+  <si>
+    <t>Заполнить только обязательные поля валидными данными и нажать кнопку "Submit".</t>
+  </si>
+  <si>
+    <t>Petr
+Petrov
+parol?1Q</t>
+  </si>
+  <si>
+    <t>Появляется сообщение об ошибке</t>
+  </si>
+  <si>
+    <t>Обязательные поля оставить пустыми, необязательные заполнить валидными данными и нажать кнопку "Submit".</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+petrov123@gmail.com
+ </t>
+  </si>
+  <si>
+    <t>Общее тестирование всех полей формы</t>
+  </si>
+  <si>
+    <t>Текст "Test" отображается в поле "Name"</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Bug report ID.1</t>
+  </si>
+  <si>
+    <t>Чек-лист для тестирования веб-формы регистрации "ITCareerToday"</t>
+  </si>
+  <si>
+    <t>Skipped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Появляется сообщение об успешной отправке формы </t>
+  </si>
+  <si>
+    <t>Оставить поле пустым</t>
+  </si>
+  <si>
+    <t>"           "</t>
+  </si>
+  <si>
+    <t>"221333"</t>
+  </si>
+  <si>
+    <t>"Test"</t>
+  </si>
+  <si>
+    <t>Bug report ID.2</t>
+  </si>
+  <si>
+    <t>Bug report ID.3</t>
+  </si>
+  <si>
+    <t>"Stepan"</t>
+  </si>
+  <si>
+    <t>"STEPAN"</t>
+  </si>
+  <si>
+    <t>"stepan"</t>
+  </si>
+  <si>
+    <t>"Степан"</t>
+  </si>
+  <si>
+    <t>Bug report ID.4</t>
+  </si>
+  <si>
+    <t>Bug report ID.5</t>
+  </si>
+  <si>
+    <t>Имя не может состоять только из цифр</t>
+  </si>
+  <si>
+    <t>"Stepan234"</t>
+  </si>
+  <si>
+    <t>" Stepan"</t>
+  </si>
+  <si>
+    <t>"Ste Pan"</t>
+  </si>
+  <si>
+    <t>"Stepan "</t>
+  </si>
+  <si>
+    <t>" Stepan "</t>
+  </si>
+  <si>
+    <t>"Stepan."</t>
+  </si>
+  <si>
+    <t>"Stepan-"</t>
+  </si>
+  <si>
+    <t>"Stepan_"</t>
+  </si>
+  <si>
+    <t>"Stepan'"</t>
+  </si>
+  <si>
+    <t>"Stepan:"</t>
+  </si>
+  <si>
+    <t>"Stepan!"</t>
+  </si>
+  <si>
+    <t>"Stepan@"</t>
+  </si>
+  <si>
+    <t>"漢字汉字"</t>
+  </si>
+  <si>
+    <t>"SteРan"</t>
+  </si>
+  <si>
+    <t>Bug report ID.6</t>
+  </si>
+  <si>
+    <t>Bug report ID.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вставить имя из буфера обмена </t>
+  </si>
+  <si>
+    <t>Проверить отображение текста в поле "Name"</t>
+  </si>
+  <si>
+    <t>Ввести имя на латинице в верхнем регистре</t>
+  </si>
+  <si>
+    <t>Ввести имя на латинице</t>
+  </si>
+  <si>
+    <t>Ввести имя на латинице в нижнем регистре</t>
+  </si>
+  <si>
+    <t>Ввести имя на кириллице</t>
+  </si>
+  <si>
+    <t>Ввести в поле только цифры</t>
+  </si>
+  <si>
+    <t>Ввести цифры в конце имени</t>
+  </si>
+  <si>
+    <t>Ввести в поле только пробелы</t>
+  </si>
+  <si>
+    <t>Ввести пробел в начале имени</t>
+  </si>
+  <si>
+    <t>Ввести пробел в середине имени</t>
+  </si>
+  <si>
+    <t>Ввести пробел в конце имени</t>
+  </si>
+  <si>
+    <t>Ввести пробелы в начале и конце имени</t>
+  </si>
+  <si>
+    <t>Ввести имя на латинице и спец. символ (@)</t>
+  </si>
+  <si>
+    <t>Ввести имя на латинице и спец. символ (!)</t>
+  </si>
+  <si>
+    <t>Ввести имя на латинице и спец. символ (:)</t>
+  </si>
+  <si>
+    <t>Ввести имя на латинице и спец. символ (')</t>
+  </si>
+  <si>
+    <t>Ввести имя на латинице и спец. символ (_)</t>
+  </si>
+  <si>
+    <t>Ввести имя на латинице и спец. символ (-)</t>
+  </si>
+  <si>
+    <t>Ввести имя на латинице и спец. символ (.)</t>
+  </si>
+  <si>
+    <t>Ввести имя используя синтаксис других алфавитов</t>
+  </si>
+  <si>
+    <t>Ввести один символ на латинице</t>
+  </si>
+  <si>
+    <t>Ввести два символа на латинице</t>
+  </si>
+  <si>
+    <t>Ввести 128 символов на латинице</t>
+  </si>
+  <si>
+    <t>Ввести 129 символов на латинице</t>
+  </si>
+  <si>
+    <t>Ввести 127 символов  на латинице</t>
+  </si>
+  <si>
+    <t>"S"</t>
+  </si>
+  <si>
+    <t>"St"</t>
+  </si>
+  <si>
+    <t>StepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanSte</t>
+  </si>
+  <si>
+    <t>StepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanSt</t>
+  </si>
+  <si>
+    <t>StepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanStepanS</t>
+  </si>
+  <si>
+    <t>Ввести HTML-тег вместе с именем</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "&lt;b&gt;Stepan&lt;/b&gt;"</t>
+  </si>
+  <si>
+    <t>Bug report ID.8</t>
+  </si>
+  <si>
+    <t>Bug report ID.9</t>
+  </si>
+  <si>
+    <t>Bug report ID.10</t>
+  </si>
+  <si>
+    <t>Тестирование поля "Surname"</t>
+  </si>
+  <si>
+    <t>Проверить отображение текста в поле "Surname"</t>
+  </si>
+  <si>
+    <t>Текст "Test" отображается в поле "Surname"</t>
+  </si>
+  <si>
+    <t>"Stepanenko"</t>
+  </si>
+  <si>
+    <t>"STEPANENKO"</t>
+  </si>
+  <si>
+    <t>"stepanenko"</t>
+  </si>
+  <si>
+    <t>"Степаненко"</t>
+  </si>
+  <si>
+    <t>"SteРanenko"</t>
+  </si>
+  <si>
+    <t>"Stepanenko234"</t>
+  </si>
+  <si>
+    <t>" Stepanenko"</t>
+  </si>
+  <si>
+    <t>"Stepa Nenko"</t>
+  </si>
+  <si>
+    <t>"Stepanenko "</t>
+  </si>
+  <si>
+    <t>" Stepanenko "</t>
+  </si>
+  <si>
+    <t>"Stepanenko."</t>
+  </si>
+  <si>
+    <t>"Stepanenko-"</t>
+  </si>
+  <si>
+    <t>"Stepanenko_"</t>
+  </si>
+  <si>
+    <t>"Stepanenko'"</t>
+  </si>
+  <si>
+    <t>"Stepanenko:"</t>
+  </si>
+  <si>
+    <t>"Stepanenko!"</t>
+  </si>
+  <si>
+    <t>"Stepanenko@"</t>
+  </si>
+  <si>
+    <t>StepanenkoStepanenkoStepanenkoStepanenkoStepanenkoStepanenkoStepanenkoStepanenkoStepanenkoStepanenkoStepanenkoStepanenkoStepanenk</t>
+  </si>
+  <si>
+    <t>StepanenkoStepanenkoStepanenkoStepanenkoStepanenkoStepanenkoStepanenkoStepanenkoStepanenkoStepanenkoStepanenkoStepanenkoStepanen</t>
+  </si>
+  <si>
+    <t>StepanenkoStepanenkoStepanenkoStepanenkoStepanenkoStepanenkoStepanenkoStepanenkoStepanenkoStepanenkoStepanenkoStepanenkoStepane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "&lt;b&gt;Stepanenko&lt;/b&gt;"</t>
+  </si>
+  <si>
+    <t>Bug report ID.11</t>
+  </si>
+  <si>
+    <t>Bug report ID.12</t>
+  </si>
+  <si>
+    <t>Bug report ID.13</t>
+  </si>
+  <si>
+    <t>Bug report ID.14</t>
+  </si>
+  <si>
+    <t>Bug report ID.15</t>
+  </si>
+  <si>
+    <t>Bug report ID.16</t>
+  </si>
+  <si>
+    <t>Bug report ID.17</t>
+  </si>
+  <si>
+    <t>Bug report ID.18</t>
+  </si>
+  <si>
+    <t>Bug report ID.19</t>
+  </si>
+  <si>
+    <t>Bug report ID.20</t>
+  </si>
+  <si>
+    <t>Bug report ID.21</t>
+  </si>
+  <si>
+    <t>Bug report ID.22</t>
+  </si>
+  <si>
+    <t>Bug report ID.23</t>
+  </si>
+  <si>
+    <t>Windows 10 Pro Chrome 92.0.4515.107</t>
+  </si>
+  <si>
+    <t>Тестирование поля "Email"</t>
+  </si>
+  <si>
+    <t>Проверить отображение символов в поле "Email"</t>
+  </si>
+  <si>
+    <t>Символы отображаются в поле "Email"</t>
+  </si>
+  <si>
+    <t>stepan@gmail.com</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
+  </si>
+  <si>
+    <t>степан@gmail.com</t>
+  </si>
+  <si>
+    <t>STEPAN@gmail.com</t>
+  </si>
+  <si>
+    <t>stePAN@gmail.com</t>
+  </si>
+  <si>
+    <t>steРan@gmail.com</t>
+  </si>
+  <si>
+    <t>字汉字@gmail.com</t>
+  </si>
+  <si>
+    <t>221333@gmail.com</t>
+  </si>
+  <si>
+    <t>stepan21@gmail.com</t>
+  </si>
+  <si>
+    <t>!":=+*$%#@gmail.com</t>
+  </si>
+  <si>
+    <t>_stepan@gmail.com</t>
+  </si>
+  <si>
+    <t>step.an@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вставить почту из буфера обмена </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stepan@gmail.com"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> "stepan @gmail.com"</t>
+  </si>
+  <si>
+    <t>Минимальное количество символов имени пользователя 2</t>
+  </si>
+  <si>
+    <t>Максимальное количество символов домена 16</t>
+  </si>
+  <si>
+    <t>Минимальное количество символов домена 3</t>
+  </si>
+  <si>
+    <t>Максимальное количество символов имени пользователя 252</t>
+  </si>
+  <si>
+    <t>"           "@gmail.com</t>
+  </si>
+  <si>
+    <t>s@gmail.com</t>
+  </si>
+  <si>
+    <t>st@gmail.com</t>
+  </si>
+  <si>
+    <t>ste@gmail.com</t>
+  </si>
+  <si>
+    <t>stepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkoste@gmail.com</t>
+  </si>
+  <si>
+    <t>stepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkost@gmail.com</t>
+  </si>
+  <si>
+    <t>stepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkos@gmail.com</t>
+  </si>
+  <si>
+    <t>Ввести почту в HTML-тег</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "&lt;b&gt;stepan@gmail.com&lt;/b&gt;"</t>
+  </si>
+  <si>
+    <t>Ввести почту без спец. символа (@)</t>
+  </si>
+  <si>
+    <t>stepangmail.com</t>
+  </si>
+  <si>
+    <t>Ввести почту с двумя спец. символами (@@)</t>
+  </si>
+  <si>
+    <t>stepan@@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @gmail.com</t>
+  </si>
+  <si>
+    <t>Проверить правильность написания хинта поля</t>
+  </si>
+  <si>
+    <t>Bug report ID.24</t>
+  </si>
+  <si>
+    <t>Bug report ID.25</t>
+  </si>
+  <si>
+    <t>Хинт "Surname." отображается без орфографических ошибок</t>
+  </si>
+  <si>
+    <t>Хинт "Name" отображается без орфографических ошибок</t>
+  </si>
+  <si>
+    <t>Bug report ID.26</t>
+  </si>
+  <si>
+    <t>Bug report ID.27</t>
+  </si>
+  <si>
+    <t>Bug report ID.28</t>
+  </si>
+  <si>
+    <t>Bug report ID.29</t>
+  </si>
+  <si>
+    <t>Bug report ID.30</t>
+  </si>
+  <si>
+    <t>Bug report ID.31</t>
+  </si>
+  <si>
+    <t>Bug report ID.32</t>
+  </si>
+  <si>
+    <t>Bug report ID.33</t>
+  </si>
+  <si>
+    <t>Bug report ID.34</t>
+  </si>
+  <si>
+    <t>Bug report ID.35</t>
+  </si>
+  <si>
+    <t>Bug report ID.36</t>
+  </si>
+  <si>
+    <t>Bug report ID.37</t>
+  </si>
+  <si>
+    <t>Добавить валидацию эмейлов</t>
+  </si>
+  <si>
+    <t>Ввести латинские буквы в имени аккаунта</t>
+  </si>
+  <si>
+    <t>Ввести латинские буквы в верхнем регистре в имени аккаунта</t>
+  </si>
+  <si>
+    <t>Ввести латинские буквы в верхнем и нижнем регистре в имени аккаунта</t>
+  </si>
+  <si>
+    <t>Ввести кириллические буквы в имени аккаунта</t>
+  </si>
+  <si>
+    <t>Ввести буквы на латинице с одинаковой буквой от кириллицы в имени аккаунта</t>
+  </si>
+  <si>
+    <t>Ввести буквы других алфавитов в имени аккаунта</t>
+  </si>
+  <si>
+    <t>Ввести только цифры в имени аккаунта</t>
+  </si>
+  <si>
+    <t>Ввести латинские буквы и цифры в имени аккаунта</t>
+  </si>
+  <si>
+    <t>Ввести спец. символы в имени аккаунта</t>
+  </si>
+  <si>
+    <t>Ввести спец. символ (_) в начале имени в имени аккаунта</t>
+  </si>
+  <si>
+    <t>Ввести спец. символы (.) в середине имени в имени аккаунта</t>
+  </si>
+  <si>
+    <t>Ввести пробел в начале имени в имени аккаунта</t>
+  </si>
+  <si>
+    <t>Ввести пробел в конце имени в имени аккаунта</t>
+  </si>
+  <si>
+    <t>Ввести только пробелы в имени аккаунта</t>
+  </si>
+  <si>
+    <t>Ввести один символ на латинице в имени аккаунта</t>
+  </si>
+  <si>
+    <t>Ввести два символа на латинице в имени аккаунта</t>
+  </si>
+  <si>
+    <t>Ввести три символа на латинице в имени аккаунта</t>
+  </si>
+  <si>
+    <t>Ввести 251 символ на латинице в имени аккаунта</t>
+  </si>
+  <si>
+    <t>Ввести 252 символ на латинице в имени аккаунта</t>
+  </si>
+  <si>
+    <t>Ввести 253 символ на латинице в имени аккаунта</t>
+  </si>
+  <si>
+    <t>Не указывать имя аккаунта</t>
+  </si>
+  <si>
+    <t>Ввести имя на латинице с одинаковой буквой от кириллицы</t>
+  </si>
+  <si>
+    <t>Ввести почту с несколькими точками в доменной части</t>
+  </si>
+  <si>
+    <t>stepan@gmail..com</t>
+  </si>
+  <si>
+    <t>Ввести почту без точек в доменной части</t>
+  </si>
+  <si>
+    <t>stepan@gmailcom</t>
+  </si>
+  <si>
+    <t>Не указывать доменную часть</t>
+  </si>
+  <si>
+    <t>stepan@</t>
+  </si>
+  <si>
+    <t>stepan@g.ua</t>
+  </si>
+  <si>
+    <t>stepan@.com</t>
+  </si>
+  <si>
+    <t>stepan@gm.ua</t>
+  </si>
+  <si>
+    <t>stepan@gmailgmailgmai.ua</t>
+  </si>
+  <si>
+    <t>stepan@gmailgmailgma.ua</t>
+  </si>
+  <si>
+    <t>stepan@gmailgmailgm.ua</t>
+  </si>
+  <si>
+    <t>Не указывать поддомен</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,8 +864,31 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,8 +901,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -242,12 +943,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -257,36 +995,111 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="70">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -299,6 +1112,16 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -307,8 +1130,592 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -586,70 +1993,70 @@
   <dimension ref="A2:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="24"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
@@ -717,7 +2124,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="H11">
         <f t="shared" ref="H11:H16" si="3">1+H10</f>
@@ -831,7 +2238,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -839,20 +2246,21 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -870,7 +2278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f>1+A19</f>
         <v>2</v>
@@ -886,9 +2294,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" ref="A21:A28" si="4">1+A20</f>
+        <f t="shared" ref="A21:A32" si="4">1+A20</f>
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -906,7 +2314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -924,7 +2332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -942,7 +2350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -958,7 +2366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -976,7 +2384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -994,7 +2402,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -1014,32 +2422,58 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>6</v>
+      <c r="B28" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
@@ -1059,283 +2493,3087 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Z18"/>
+  <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="40.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="17"/>
+    <col min="7" max="7" width="18.42578125" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="Z4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <f>1+A4</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="Z5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <f t="shared" ref="A6:A34" si="0">1+A5</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="30"/>
+      <c r="F18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="34"/>
+      <c r="F29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="30"/>
+      <c r="F32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+    </row>
+  </sheetData>
+  <sortState ref="Z3:Z4">
+    <sortCondition ref="Z5"/>
+  </sortState>
+  <mergeCells count="9">
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="E5:E7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F13:F20 F4:F8 F11">
+    <cfRule type="cellIs" dxfId="69" priority="16" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="17" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="18" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F8 F34 F10:F32">
+    <cfRule type="cellIs" dxfId="66" priority="13" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="14" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="15" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="cellIs" dxfId="63" priority="10" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="11" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="12" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F32">
+    <cfRule type="cellIs" dxfId="60" priority="7" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="8" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="9" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="5" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="6" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="3" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F34">
+      <formula1>$Z$3:$Z$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="17"/>
+    <col min="7" max="7" width="18.42578125" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="Z4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <f>1+A4</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="Z5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <f t="shared" ref="A6:A33" si="0">1+A5</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="30"/>
+      <c r="F18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" s="34"/>
+      <c r="F29" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="30"/>
+      <c r="F32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E17:E18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F13:F20 F4:F8 F11">
+    <cfRule type="cellIs" dxfId="51" priority="15" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="16" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="17" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F8 F34 F10:F32">
+    <cfRule type="cellIs" dxfId="48" priority="12" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="13" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="cellIs" dxfId="45" priority="9" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F32">
+    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="8" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F34">
+      <formula1>$Z$3:$Z$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="27" style="17" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="17"/>
+    <col min="7" max="7" width="18.42578125" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="Z4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <f>1+A4</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="Z5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <f t="shared" ref="A6:A47" si="0">1+A5</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="32"/>
+    </row>
+    <row r="23" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="32"/>
+    </row>
+    <row r="24" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="32"/>
+    </row>
+    <row r="25" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="32"/>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="30"/>
+      <c r="F28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="32"/>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E9:E20"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F27:F34 F25 F4:F6 F8:F9 F14:F16 F18:F22 F47">
+    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="39" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F6 F8:F9 F14:F16 F18:F22 F24:F47">
+    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="36" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="32" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="33" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:F13">
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="30" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:F13">
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="27" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F16 F18:F47">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F47">
+      <formula1>$Z$3:$Z$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="65.28515625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="60.5703125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="14" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>38</v>
       </c>
       <c r="Z3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="C4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="7"/>
       <c r="Z4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+    <row r="5" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <f>1+A4</f>
         <v>2</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="C5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+        <v>49</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <f t="shared" ref="A6:A18" si="0">1+A5</f>
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="C6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="10" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="10" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="10" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
   <conditionalFormatting sqref="F4:F18">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -1344,17 +5582,26 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="272">
   <si>
     <t>Поле "Name:"</t>
   </si>
@@ -796,15 +796,9 @@
     <t>stepan@g.ua</t>
   </si>
   <si>
-    <t>stepan@.com</t>
-  </si>
-  <si>
     <t>stepan@gm.ua</t>
   </si>
   <si>
-    <t>stepan@gmailgmailgmai.ua</t>
-  </si>
-  <si>
     <t>stepan@gmailgmailgma.ua</t>
   </si>
   <si>
@@ -812,6 +806,72 @@
   </si>
   <si>
     <t>Не указывать поддомен</t>
+  </si>
+  <si>
+    <t>Ввести одну букву в поддомене</t>
+  </si>
+  <si>
+    <t>Ввести две буквы в поддомене</t>
+  </si>
+  <si>
+    <t>stepan@.ua</t>
+  </si>
+  <si>
+    <t>stepan@gmail.</t>
+  </si>
+  <si>
+    <t>Не указывать доменную зону</t>
+  </si>
+  <si>
+    <t>Ввести одну букву в доменной зоне</t>
+  </si>
+  <si>
+    <t>stepan@gmail.u</t>
+  </si>
+  <si>
+    <t>Ввести 15 символов в домене</t>
+  </si>
+  <si>
+    <t>stepan@gmailgmailg.ua</t>
+  </si>
+  <si>
+    <t>Ввести 16 символов в домене</t>
+  </si>
+  <si>
+    <t>Ввести 17 символов в домене</t>
+  </si>
+  <si>
+    <t>Ввести цифры в поддомене</t>
+  </si>
+  <si>
+    <t>stepan@22133.ua</t>
+  </si>
+  <si>
+    <t>Ввести цифры в доменной зоне</t>
+  </si>
+  <si>
+    <t>stepan@gmail.221</t>
+  </si>
+  <si>
+    <t>Ввести пробел в начале домена</t>
+  </si>
+  <si>
+    <t>"stepan@ gmail.com"</t>
+  </si>
+  <si>
+    <t>Ввести пробел в конце домена</t>
+  </si>
+  <si>
+    <t>"stepan@gmail.com "</t>
+  </si>
+  <si>
+    <t>stepan@gma%^$^*il.com</t>
+  </si>
+  <si>
+    <t>stepan@gmail.co+$#n</t>
+  </si>
+  <si>
+    <t>Ввести спец. символы в поддомене</t>
   </si>
 </sst>
 </file>
@@ -1004,12 +1064,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1035,18 +1089,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1057,22 +1111,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1081,8 +1129,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1999,64 +2059,64 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="24"/>
+      <c r="J7" s="19"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
@@ -2248,17 +2308,17 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="12"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -2501,57 +2561,57 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="58.140625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="17"/>
-    <col min="7" max="7" width="18.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="15"/>
+    <col min="7" max="7" width="18.42578125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>38</v>
       </c>
       <c r="Z3" t="s">
@@ -2562,7 +2622,7 @@
       <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>90</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -2596,7 +2656,7 @@
       <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="33" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -2609,7 +2669,7 @@
     </row>
     <row r="6" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <f t="shared" ref="A6:A34" si="0">1+A5</f>
+        <f t="shared" ref="A6:A33" si="0">1+A5</f>
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -2621,7 +2681,7 @@
       <c r="D6" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
@@ -2641,7 +2701,7 @@
       <c r="D7" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
@@ -2652,22 +2712,22 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="29" t="s">
+      <c r="D8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="21" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2685,11 +2745,11 @@
       <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="34"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="21" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2707,11 +2767,11 @@
       <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="34"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="21" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2733,7 +2793,7 @@
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2771,7 +2831,7 @@
       <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="28" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -2793,7 +2853,7 @@
       <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="34"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="9" t="s">
         <v>39</v>
       </c>
@@ -2857,7 +2917,7 @@
       <c r="D17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="28" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -2903,7 +2963,7 @@
       <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="28" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -2925,7 +2985,7 @@
       <c r="D20" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="34"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="9" t="s">
         <v>39</v>
       </c>
@@ -2945,7 +3005,7 @@
       <c r="D21" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="34"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="9" t="s">
         <v>39</v>
       </c>
@@ -2965,7 +3025,7 @@
       <c r="D22" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E22" s="34"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="9" t="s">
         <v>39</v>
       </c>
@@ -2985,7 +3045,7 @@
       <c r="D23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="34"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="9" t="s">
         <v>39</v>
       </c>
@@ -3049,7 +3109,7 @@
       <c r="D26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="28" t="s">
         <v>59</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -3071,7 +3131,7 @@
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="34"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="9" t="s">
         <v>40</v>
       </c>
@@ -3093,7 +3153,7 @@
       <c r="D28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="34"/>
+      <c r="E28" s="29"/>
       <c r="F28" s="9" t="s">
         <v>40</v>
       </c>
@@ -3106,7 +3166,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="15" t="s">
         <v>114</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -3115,7 +3175,7 @@
       <c r="D29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="34"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="9" t="s">
         <v>40</v>
       </c>
@@ -3159,7 +3219,7 @@
       <c r="D31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="28" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -3212,64 +3272,64 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
     </row>
   </sheetData>
   <sortState ref="Z3:Z4">
     <sortCondition ref="Z5"/>
   </sortState>
   <mergeCells count="9">
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="E5:E7"/>
     <mergeCell ref="E26:E30"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="E19:E24"/>
     <mergeCell ref="E13:E15"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="F13:F20 F4:F8 F11">
     <cfRule type="cellIs" dxfId="69" priority="16" operator="equal">
@@ -3357,57 +3417,57 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="58.140625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="17"/>
-    <col min="7" max="7" width="18.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="15"/>
+    <col min="7" max="7" width="18.42578125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>38</v>
       </c>
       <c r="Z3" t="s">
@@ -3418,7 +3478,7 @@
       <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>126</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -3452,7 +3512,7 @@
       <c r="D5" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="33" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -3477,7 +3537,7 @@
       <c r="D6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
@@ -3497,7 +3557,7 @@
       <c r="D7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
@@ -3508,22 +3568,22 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="29" t="s">
+      <c r="D8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="21" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3541,11 +3601,11 @@
       <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="34"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="21" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3563,11 +3623,11 @@
       <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="34"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="21" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3589,7 +3649,7 @@
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="21" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3627,7 +3687,7 @@
       <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="28" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -3649,7 +3709,7 @@
       <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="34"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="9" t="s">
         <v>39</v>
       </c>
@@ -3673,7 +3733,7 @@
       <c r="F15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="21" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3713,7 +3773,7 @@
       <c r="D17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="28" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -3759,7 +3819,7 @@
       <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="28" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -3781,7 +3841,7 @@
       <c r="D20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="34"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="9" t="s">
         <v>39</v>
       </c>
@@ -3801,7 +3861,7 @@
       <c r="D21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="34"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="9" t="s">
         <v>39</v>
       </c>
@@ -3821,7 +3881,7 @@
       <c r="D22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="34"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="9" t="s">
         <v>39</v>
       </c>
@@ -3841,7 +3901,7 @@
       <c r="D23" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="34"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="9" t="s">
         <v>39</v>
       </c>
@@ -3905,7 +3965,7 @@
       <c r="D26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="28" t="s">
         <v>59</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -3927,7 +3987,7 @@
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="34"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="9" t="s">
         <v>39</v>
       </c>
@@ -3947,7 +4007,7 @@
       <c r="D28" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E28" s="34"/>
+      <c r="E28" s="29"/>
       <c r="F28" s="9" t="s">
         <v>39</v>
       </c>
@@ -3958,7 +4018,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="15" t="s">
         <v>114</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -3967,7 +4027,7 @@
       <c r="D29" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E29" s="34"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="9" t="s">
         <v>39</v>
       </c>
@@ -4007,7 +4067,7 @@
       <c r="D31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="28" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -4062,49 +4122,49 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4193,65 +4253,65 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="58.140625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="27" style="17" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="17"/>
-    <col min="7" max="7" width="18.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="27" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="15"/>
+    <col min="7" max="7" width="18.42578125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>38</v>
       </c>
       <c r="Z3" t="s">
@@ -4262,10 +4322,10 @@
       <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>167</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -4294,7 +4354,7 @@
       <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="33" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -4307,7 +4367,7 @@
     </row>
     <row r="6" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <f t="shared" ref="A6:A47" si="0">1+A5</f>
+        <f t="shared" ref="A6:A62" si="0">1+A5</f>
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -4319,7 +4379,7 @@
       <c r="D6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
@@ -4339,7 +4399,7 @@
       <c r="D7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
@@ -4359,7 +4419,7 @@
       <c r="D8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="9" t="s">
         <v>39</v>
       </c>
@@ -4370,7 +4430,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>220</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -4379,7 +4439,7 @@
       <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>50</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -4403,7 +4463,7 @@
       <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="34"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
@@ -4425,7 +4485,7 @@
       <c r="D11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="34"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
@@ -4447,7 +4507,7 @@
       <c r="D12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="34"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="9" t="s">
         <v>40</v>
       </c>
@@ -4469,7 +4529,7 @@
       <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="34"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="9" t="s">
         <v>40</v>
       </c>
@@ -4491,7 +4551,7 @@
       <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="34"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="9" t="s">
         <v>40</v>
       </c>
@@ -4513,7 +4573,7 @@
       <c r="D15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="34"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="9" t="s">
         <v>40</v>
       </c>
@@ -4535,7 +4595,7 @@
       <c r="D16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="34"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="9" t="s">
         <v>40</v>
       </c>
@@ -4557,7 +4617,7 @@
       <c r="D17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="34"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="9" t="s">
         <v>40</v>
       </c>
@@ -4579,7 +4639,7 @@
       <c r="D18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="34"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="9" t="s">
         <v>40</v>
       </c>
@@ -4601,7 +4661,7 @@
       <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="34"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="9" t="s">
         <v>40</v>
       </c>
@@ -4645,7 +4705,7 @@
       <c r="D21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="33" t="s">
         <v>59</v>
       </c>
       <c r="F21" s="9" t="s">
@@ -4658,20 +4718,20 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="21" t="s">
         <v>188</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="32" t="s">
+      <c r="E22" s="34"/>
+      <c r="F22" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="32"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
@@ -4687,11 +4747,11 @@
       <c r="D23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="22"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="32"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
@@ -4707,11 +4767,11 @@
       <c r="D24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="23"/>
+      <c r="E24" s="35"/>
       <c r="F24" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="32"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
@@ -4727,13 +4787,13 @@
       <c r="D25" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="28" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="32"/>
+      <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
@@ -4749,7 +4809,7 @@
       <c r="D26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="34"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="9" t="s">
         <v>40</v>
       </c>
@@ -4769,7 +4829,7 @@
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="34"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="9" t="s">
         <v>40</v>
       </c>
@@ -4809,11 +4869,11 @@
       <c r="D29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="15"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="32"/>
+      <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
@@ -4849,7 +4909,7 @@
       <c r="D31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="15"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="9" t="s">
         <v>40</v>
       </c>
@@ -4861,15 +4921,15 @@
         <v>29</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>246</v>
+        <v>249</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>252</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="15"/>
+      <c r="E32" s="13"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
@@ -4878,9 +4938,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="15" t="s">
+        <v>254</v>
+      </c>
       <c r="C33" s="9" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>41</v>
@@ -4894,9 +4956,11 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="9" t="s">
+        <v>250</v>
+      </c>
       <c r="C34" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>41</v>
@@ -4910,9 +4974,11 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="9" t="s">
+        <v>255</v>
+      </c>
       <c r="C35" s="7" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>41</v>
@@ -4926,9 +4992,11 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="9" t="s">
+        <v>251</v>
+      </c>
       <c r="C36" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>41</v>
@@ -4942,9 +5010,11 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="9" t="s">
+        <v>257</v>
+      </c>
       <c r="C37" s="9" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>41</v>
@@ -4958,7 +5028,9 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="9" t="s">
+        <v>259</v>
+      </c>
       <c r="C38" s="9" t="s">
         <v>248</v>
       </c>
@@ -4974,8 +5046,12 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
+      <c r="B39" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>247</v>
+      </c>
       <c r="D39" s="9" t="s">
         <v>41</v>
       </c>
@@ -4988,8 +5064,12 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
+      <c r="B40" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>262</v>
+      </c>
       <c r="D40" s="9" t="s">
         <v>41</v>
       </c>
@@ -5002,8 +5082,12 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
+      <c r="B41" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>264</v>
+      </c>
       <c r="D41" s="9" t="s">
         <v>41</v>
       </c>
@@ -5016,8 +5100,12 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
+      <c r="B42" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>266</v>
+      </c>
       <c r="D42" s="9" t="s">
         <v>41</v>
       </c>
@@ -5030,8 +5118,12 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
+      <c r="B43" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>268</v>
+      </c>
       <c r="D43" s="9" t="s">
         <v>41</v>
       </c>
@@ -5044,8 +5136,12 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
+      <c r="B44" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>269</v>
+      </c>
       <c r="D44" s="9" t="s">
         <v>41</v>
       </c>
@@ -5059,7 +5155,9 @@
         <v>42</v>
       </c>
       <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
+      <c r="C45" s="7" t="s">
+        <v>270</v>
+      </c>
       <c r="D45" s="9" t="s">
         <v>41</v>
       </c>
@@ -5068,50 +5166,260 @@
       <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+      <c r="A46" s="22">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B46" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G46" s="33" t="s">
-        <v>161</v>
-      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="9"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B57" s="9"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C62" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E47" s="19" t="s">
+      <c r="D62" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F62" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G47" s="9"/>
+      <c r="G62" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5122,7 +5430,7 @@
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
   </mergeCells>
-  <conditionalFormatting sqref="F27:F34 F25 F4:F6 F8:F9 F14:F16 F18:F22 F47">
+  <conditionalFormatting sqref="F27:F34 F25 F4:F6 F8:F9 F14:F16 F18:F22 F62">
     <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
@@ -5133,7 +5441,7 @@
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F6 F8:F9 F14:F16 F18:F22 F24:F47">
+  <conditionalFormatting sqref="F4:F6 F8:F9 F14:F16 F18:F22 F24:F62">
     <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
@@ -5199,7 +5507,7 @@
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F16 F18:F47">
+  <conditionalFormatting sqref="F4:F16 F18:F62">
     <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
@@ -5244,7 +5552,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F62">
       <formula1>$Z$3:$Z$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -5264,49 +5572,49 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="65.28515625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="65.28515625" style="15" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="60.5703125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="60.5703125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="12" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>37</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -5370,13 +5678,13 @@
         <f t="shared" ref="A6:A18" si="0">1+A5</f>
         <v>3</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="9" t="s">

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="275">
   <si>
     <t>Поле "Name:"</t>
   </si>
@@ -775,9 +775,6 @@
     <t>Ввести имя на латинице с одинаковой буквой от кириллицы</t>
   </si>
   <si>
-    <t>Ввести почту с несколькими точками в доменной части</t>
-  </si>
-  <si>
     <t>stepan@gmail..com</t>
   </si>
   <si>
@@ -872,6 +869,18 @@
   </si>
   <si>
     <t>Ввести спец. символы в поддомене</t>
+  </si>
+  <si>
+    <t>Ввести спец. символы в доменной зоне</t>
+  </si>
+  <si>
+    <t>Ввести почту с несколькими точками подряд в доменной части</t>
+  </si>
+  <si>
+    <t>stepan@gm.ail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести почту с доменом второго и третьего уровня разделенного точкой </t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1158,86 @@
     <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="79">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3321,79 +3409,79 @@
     <sortCondition ref="Z5"/>
   </sortState>
   <mergeCells count="9">
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="E13:E15"/>
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="E26:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="E13:E15"/>
   </mergeCells>
   <conditionalFormatting sqref="F13:F20 F4:F8 F11">
-    <cfRule type="cellIs" dxfId="69" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="16" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="17" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="18" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F8 F34 F10:F32">
-    <cfRule type="cellIs" dxfId="66" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="13" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="14" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="15" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="63" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="10" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="11" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="12" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F32">
-    <cfRule type="cellIs" dxfId="60" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="7" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="8" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="9" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="4" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="5" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="6" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4179,65 +4267,65 @@
     <mergeCell ref="E17:E18"/>
   </mergeCells>
   <conditionalFormatting sqref="F13:F20 F4:F8 F11">
-    <cfRule type="cellIs" dxfId="51" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="15" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="16" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="17" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F8 F34 F10:F32">
-    <cfRule type="cellIs" dxfId="48" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="12" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="13" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="14" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="45" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="9" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="10" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="11" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F32">
-    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="7" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="8" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="4" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="5" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4255,8 +4343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4861,10 +4949,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>239</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>240</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>41</v>
@@ -4881,17 +4969,17 @@
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="9"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30" s="9"/>
     </row>
@@ -4901,15 +4989,15 @@
         <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="13"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="9" t="s">
         <v>40</v>
       </c>
@@ -4921,16 +5009,18 @@
         <v>29</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>252</v>
+        <v>242</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>243</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="9"/>
+      <c r="F32" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4938,16 +5028,16 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>253</v>
+      <c r="B33" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>251</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="9"/>
+      <c r="E33" s="13"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
     </row>
@@ -4956,11 +5046,11 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>250</v>
+      <c r="B34" s="15" t="s">
+        <v>253</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>41</v>
@@ -4975,10 +5065,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>244</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>41</v>
@@ -4993,10 +5083,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>246</v>
+        <v>254</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>41</v>
@@ -5011,10 +5101,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>41</v>
@@ -5029,10 +5119,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>41</v>
@@ -5047,7 +5137,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>247</v>
@@ -5065,10 +5155,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>41</v>
@@ -5083,10 +5173,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>41</v>
@@ -5101,10 +5191,10 @@
         <v>39</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>41</v>
@@ -5119,10 +5209,10 @@
         <v>40</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>41</v>
@@ -5137,10 +5227,10 @@
         <v>41</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>269</v>
+        <v>266</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>41</v>
@@ -5154,9 +5244,11 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="7" t="s">
+      <c r="B45" s="9" t="s">
         <v>270</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>268</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>41</v>
@@ -5170,8 +5262,12 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="7"/>
+      <c r="B46" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>269</v>
+      </c>
       <c r="D46" s="9" t="s">
         <v>41</v>
       </c>
@@ -5430,7 +5526,40 @@
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
   </mergeCells>
-  <conditionalFormatting sqref="F27:F34 F25 F4:F6 F8:F9 F14:F16 F18:F22 F62">
+  <conditionalFormatting sqref="F25 F4:F6 F8:F9 F14:F16 F18:F22 F62 F27:F29 F31:F35">
+    <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="48" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F6 F8:F9 F14:F16 F18:F22 F24:F29 F31:F62">
+    <cfRule type="cellIs" dxfId="40" priority="43" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="44" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="45" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:F13">
     <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
@@ -5441,7 +5570,7 @@
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F6 F8:F9 F14:F16 F18:F22 F24:F62">
+  <conditionalFormatting sqref="F10:F13">
     <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
@@ -5452,40 +5581,40 @@
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="33" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10:F13">
-    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="30" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10:F13">
-    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="27" operator="equal">
-      <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F16 F18:F29 F31:F62">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
     <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
@@ -5496,7 +5625,7 @@
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="F17">
     <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
@@ -5507,7 +5636,7 @@
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F16 F18:F62">
+  <conditionalFormatting sqref="F17">
     <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
@@ -5518,36 +5647,36 @@
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+  <conditionalFormatting sqref="F30">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+  <conditionalFormatting sqref="F30">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+  <conditionalFormatting sqref="F30">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5877,10 +6006,10 @@
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F18">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="306">
   <si>
     <t>Поле "Name:"</t>
   </si>
@@ -634,9 +634,6 @@
     <t>stepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkostepanenkos@gmail.com</t>
   </si>
   <si>
-    <t>Ввести почту в HTML-тег</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "&lt;b&gt;stepan@gmail.com&lt;/b&gt;"</t>
   </si>
   <si>
@@ -655,9 +652,6 @@
     <t xml:space="preserve"> @gmail.com</t>
   </si>
   <si>
-    <t>Проверить правильность написания хинта поля</t>
-  </si>
-  <si>
     <t>Bug report ID.24</t>
   </si>
   <si>
@@ -667,9 +661,6 @@
     <t>Хинт "Surname." отображается без орфографических ошибок</t>
   </si>
   <si>
-    <t>Хинт "Name" отображается без орфографических ошибок</t>
-  </si>
-  <si>
     <t>Bug report ID.26</t>
   </si>
   <si>
@@ -790,9 +781,6 @@
     <t>stepan@</t>
   </si>
   <si>
-    <t>stepan@g.ua</t>
-  </si>
-  <si>
     <t>stepan@gm.ua</t>
   </si>
   <si>
@@ -826,18 +814,9 @@
     <t>stepan@gmail.u</t>
   </si>
   <si>
-    <t>Ввести 15 символов в домене</t>
-  </si>
-  <si>
     <t>stepan@gmailgmailg.ua</t>
   </si>
   <si>
-    <t>Ввести 16 символов в домене</t>
-  </si>
-  <si>
-    <t>Ввести 17 символов в домене</t>
-  </si>
-  <si>
     <t>Ввести цифры в поддомене</t>
   </si>
   <si>
@@ -862,9 +841,6 @@
     <t>"stepan@gmail.com "</t>
   </si>
   <si>
-    <t>stepan@gma%^$^*il.com</t>
-  </si>
-  <si>
     <t>stepan@gmail.co+$#n</t>
   </si>
   <si>
@@ -880,7 +856,124 @@
     <t>stepan@gm.ail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Ввести почту с доменом второго и третьего уровня разделенного точкой </t>
+    <t>Ввести почту с доменом первого, второго и третьего уровня разделенных точками</t>
+  </si>
+  <si>
+    <t>stepan@gma%^$il.com</t>
+  </si>
+  <si>
+    <t>Ввести кириллические буквы в поддомене</t>
+  </si>
+  <si>
+    <t>stepan@письмо.ua</t>
+  </si>
+  <si>
+    <t>Ввести доменную часть на кириллице</t>
+  </si>
+  <si>
+    <t>stepan@письмо.юа</t>
+  </si>
+  <si>
+    <t>Ввести кириллические буквы в доменной зоне</t>
+  </si>
+  <si>
+    <t>stepan@gmail.юа</t>
+  </si>
+  <si>
+    <t>Ввести почту с HTML-тегом</t>
+  </si>
+  <si>
+    <t>Проверить правильность написания хинта поля "Surname"</t>
+  </si>
+  <si>
+    <t>Проверить правильность написания хинта поля "Name"</t>
+  </si>
+  <si>
+    <t>Хинт "Name." отображается без орфографических ошибок</t>
+  </si>
+  <si>
+    <t>Хинт "Your email address." отображается без орфографических ошибок</t>
+  </si>
+  <si>
+    <t>Bug report ID.38</t>
+  </si>
+  <si>
+    <t>Bug report ID.39</t>
+  </si>
+  <si>
+    <t>Bug report ID.40</t>
+  </si>
+  <si>
+    <t>Bug report ID.41</t>
+  </si>
+  <si>
+    <t>Bug report ID.42</t>
+  </si>
+  <si>
+    <t>stepan@i.ua</t>
+  </si>
+  <si>
+    <t>Ввести 12 символов в домене</t>
+  </si>
+  <si>
+    <t>Ввести 13 символов в домене</t>
+  </si>
+  <si>
+    <t>Ввести 14 символов в домене</t>
+  </si>
+  <si>
+    <t>Bug report ID.43</t>
+  </si>
+  <si>
+    <t>Bug report ID.44</t>
+  </si>
+  <si>
+    <t>Bug report ID.45</t>
+  </si>
+  <si>
+    <t>Bug report ID.46</t>
+  </si>
+  <si>
+    <t>Bug report ID.47</t>
+  </si>
+  <si>
+    <t>Bug report ID.48</t>
+  </si>
+  <si>
+    <t>Bug report ID.49</t>
+  </si>
+  <si>
+    <t>Bug report ID.50</t>
+  </si>
+  <si>
+    <t>Bug report ID.51</t>
+  </si>
+  <si>
+    <t>Bug report ID.52</t>
+  </si>
+  <si>
+    <t>Bug report ID.53</t>
+  </si>
+  <si>
+    <t>Bug report ID.54</t>
+  </si>
+  <si>
+    <t>Bug report ID.55</t>
+  </si>
+  <si>
+    <t>Bug report ID.56</t>
+  </si>
+  <si>
+    <t>Bug report ID.57</t>
+  </si>
+  <si>
+    <t>Bug report ID.58</t>
+  </si>
+  <si>
+    <t>Проверить правильность написания хинта поля "Email"</t>
+  </si>
+  <si>
+    <t>Данные вставлены в поле</t>
   </si>
 </sst>
 </file>
@@ -1080,9 +1173,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1099,9 +1189,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1126,10 +1213,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1153,24 +1240,73 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="79">
+  <dxfs count="85">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1180,9 +1316,36 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1235,26 +1398,6 @@
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2147,64 +2290,64 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="19"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
@@ -2396,14 +2539,14 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="18" t="s">
         <v>8</v>
       </c>
       <c r="J18" s="10"/>
@@ -2643,42 +2786,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="58.140625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="15"/>
-    <col min="7" max="7" width="18.42578125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="14"/>
+    <col min="7" max="7" width="18.42578125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -2710,7 +2853,7 @@
       <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>90</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -2744,7 +2887,7 @@
       <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="31" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -2769,7 +2912,7 @@
       <c r="D6" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
@@ -2789,7 +2932,7 @@
       <c r="D7" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="35"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
@@ -2800,22 +2943,22 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="28" t="s">
+      <c r="D8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="21" t="s">
+      <c r="F8" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2825,7 +2968,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>86</v>
@@ -2833,11 +2976,11 @@
       <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="29"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="19" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2855,11 +2998,11 @@
       <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="29"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="19" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2877,11 +3020,11 @@
       <c r="D11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="19" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2919,7 +3062,7 @@
       <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="26" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -2941,7 +3084,7 @@
       <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="29"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="9" t="s">
         <v>39</v>
       </c>
@@ -2961,7 +3104,7 @@
       <c r="D15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="30"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="9" t="s">
         <v>40</v>
       </c>
@@ -3005,7 +3148,7 @@
       <c r="D17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="26" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -3029,7 +3172,7 @@
       <c r="D18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="30"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="9" t="s">
         <v>40</v>
       </c>
@@ -3051,7 +3194,7 @@
       <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="26" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -3073,7 +3216,7 @@
       <c r="D20" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="29"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="9" t="s">
         <v>39</v>
       </c>
@@ -3093,7 +3236,7 @@
       <c r="D21" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="29"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="9" t="s">
         <v>39</v>
       </c>
@@ -3113,7 +3256,7 @@
       <c r="D22" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E22" s="29"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="9" t="s">
         <v>39</v>
       </c>
@@ -3133,7 +3276,7 @@
       <c r="D23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="29"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="9" t="s">
         <v>39</v>
       </c>
@@ -3153,7 +3296,7 @@
       <c r="D24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="30"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="9" t="s">
         <v>39</v>
       </c>
@@ -3197,8 +3340,8 @@
       <c r="D26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="28" t="s">
-        <v>59</v>
+      <c r="E26" s="16" t="s">
+        <v>305</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>39</v>
@@ -3219,7 +3362,9 @@
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="29"/>
+      <c r="E27" s="26" t="s">
+        <v>59</v>
+      </c>
       <c r="F27" s="9" t="s">
         <v>40</v>
       </c>
@@ -3241,7 +3386,7 @@
       <c r="D28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="29"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="9" t="s">
         <v>40</v>
       </c>
@@ -3254,7 +3399,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>114</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -3263,7 +3408,7 @@
       <c r="D29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="29"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="9" t="s">
         <v>40</v>
       </c>
@@ -3285,7 +3430,7 @@
       <c r="D30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="30"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="9" t="s">
         <v>40</v>
       </c>
@@ -3307,7 +3452,7 @@
       <c r="D31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="26" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -3329,7 +3474,7 @@
       <c r="D32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="30"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="9" t="s">
         <v>40</v>
       </c>
@@ -3343,14 +3488,14 @@
         <v>30</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>199</v>
+        <v>276</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>203</v>
+        <v>277</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>40</v>
@@ -3360,128 +3505,128 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
     </row>
   </sheetData>
   <sortState ref="Z3:Z4">
     <sortCondition ref="Z5"/>
   </sortState>
   <mergeCells count="9">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E27:E30"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="E19:E24"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="E8:E11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E26:E30"/>
   </mergeCells>
   <conditionalFormatting sqref="F13:F20 F4:F8 F11">
-    <cfRule type="cellIs" dxfId="78" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="16" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="17" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="18" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F8 F34 F10:F32">
-    <cfRule type="cellIs" dxfId="75" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="13" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="14" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="15" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="72" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="10" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="11" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="12" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F32">
-    <cfRule type="cellIs" dxfId="69" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="7" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="8" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="9" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="66" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="5" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="6" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="3" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3499,42 +3644,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="58.140625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="15"/>
-    <col min="7" max="7" width="18.42578125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="14"/>
+    <col min="7" max="7" width="18.42578125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -3566,7 +3711,7 @@
       <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>126</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -3600,7 +3745,7 @@
       <c r="D5" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="31" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -3625,7 +3770,7 @@
       <c r="D6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
@@ -3645,7 +3790,7 @@
       <c r="D7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="35"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
@@ -3656,22 +3801,22 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="28" t="s">
+      <c r="D8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="21" t="s">
+      <c r="F8" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3681,7 +3826,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>132</v>
@@ -3689,11 +3834,11 @@
       <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="29"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="19" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3711,11 +3856,11 @@
       <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="29"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="19" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3733,11 +3878,11 @@
       <c r="D11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="19" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3775,7 +3920,7 @@
       <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="26" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -3797,7 +3942,7 @@
       <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="29"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="9" t="s">
         <v>39</v>
       </c>
@@ -3817,11 +3962,11 @@
       <c r="D15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="30"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="19" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3861,7 +4006,7 @@
       <c r="D17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="26" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -3885,7 +4030,7 @@
       <c r="D18" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E18" s="30"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="9" t="s">
         <v>40</v>
       </c>
@@ -3907,7 +4052,7 @@
       <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="26" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -3929,7 +4074,7 @@
       <c r="D20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="29"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="9" t="s">
         <v>39</v>
       </c>
@@ -3949,7 +4094,7 @@
       <c r="D21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="29"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="9" t="s">
         <v>39</v>
       </c>
@@ -3969,7 +4114,7 @@
       <c r="D22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="29"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="9" t="s">
         <v>39</v>
       </c>
@@ -3989,7 +4134,7 @@
       <c r="D23" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="29"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="9" t="s">
         <v>39</v>
       </c>
@@ -4009,7 +4154,7 @@
       <c r="D24" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="30"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="9" t="s">
         <v>39</v>
       </c>
@@ -4053,8 +4198,8 @@
       <c r="D26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="28" t="s">
-        <v>59</v>
+      <c r="E26" s="16" t="s">
+        <v>305</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>39</v>
@@ -4075,7 +4220,9 @@
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="29"/>
+      <c r="E27" s="26" t="s">
+        <v>59</v>
+      </c>
       <c r="F27" s="9" t="s">
         <v>39</v>
       </c>
@@ -4095,7 +4242,7 @@
       <c r="D28" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E28" s="29"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="9" t="s">
         <v>39</v>
       </c>
@@ -4106,7 +4253,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>114</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -4115,7 +4262,7 @@
       <c r="D29" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E29" s="29"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="9" t="s">
         <v>39</v>
       </c>
@@ -4135,7 +4282,7 @@
       <c r="D30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="30"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="9" t="s">
         <v>39</v>
       </c>
@@ -4155,7 +4302,7 @@
       <c r="D31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="26" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -4179,12 +4326,12 @@
       <c r="D32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="30"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4193,71 +4340,70 @@
         <v>30</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>199</v>
+        <v>275</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="E19:E24"/>
-    <mergeCell ref="E26:E30"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -4265,67 +4411,68 @@
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E27:E30"/>
   </mergeCells>
   <conditionalFormatting sqref="F13:F20 F4:F8 F11">
-    <cfRule type="cellIs" dxfId="60" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="15" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="16" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="17" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F8 F34 F10:F32">
-    <cfRule type="cellIs" dxfId="57" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="12" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="13" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="14" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="54" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="9" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="10" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="11" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F32">
-    <cfRule type="cellIs" dxfId="51" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="7" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="8" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="49" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="5" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="6" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4341,44 +4488,44 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z62"/>
+  <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="58.140625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="27" style="15" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="15"/>
-    <col min="7" max="7" width="18.42578125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="27" style="14" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="14"/>
+    <col min="7" max="7" width="18.42578125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -4410,10 +4557,10 @@
       <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>167</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -4442,7 +4589,7 @@
       <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="31" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -4459,7 +4606,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>166</v>
@@ -4467,7 +4614,7 @@
       <c r="D6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
@@ -4479,7 +4626,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>169</v>
@@ -4487,7 +4634,7 @@
       <c r="D7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
@@ -4499,7 +4646,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>170</v>
@@ -4507,7 +4654,7 @@
       <c r="D8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="35"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="9" t="s">
         <v>39</v>
       </c>
@@ -4518,8 +4665,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>220</v>
+      <c r="B9" s="14" t="s">
+        <v>217</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>168</v>
@@ -4527,14 +4674,14 @@
       <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="26" t="s">
         <v>50</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -4543,7 +4690,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>171</v>
@@ -4551,12 +4698,12 @@
       <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="29"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -4565,7 +4712,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>172</v>
@@ -4573,12 +4720,12 @@
       <c r="D11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="29"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -4587,7 +4734,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>173</v>
@@ -4595,12 +4742,12 @@
       <c r="D12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="29"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -4609,7 +4756,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>174</v>
@@ -4617,12 +4764,12 @@
       <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="29"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -4631,7 +4778,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>175</v>
@@ -4639,12 +4786,12 @@
       <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="29"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -4653,7 +4800,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>176</v>
@@ -4661,12 +4808,12 @@
       <c r="D15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="29"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -4675,7 +4822,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>177</v>
@@ -4683,12 +4830,12 @@
       <c r="D16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="29"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4697,7 +4844,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>179</v>
@@ -4705,12 +4852,12 @@
       <c r="D17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="29"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4719,7 +4866,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>180</v>
@@ -4727,12 +4874,12 @@
       <c r="D18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="29"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4741,7 +4888,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>185</v>
@@ -4749,12 +4896,12 @@
       <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="29"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4763,7 +4910,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>186</v>
@@ -4771,12 +4918,12 @@
       <c r="D20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="30"/>
+      <c r="E20" s="27"/>
       <c r="F20" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4785,7 +4932,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>187</v>
@@ -4793,7 +4940,7 @@
       <c r="D21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="31" t="s">
         <v>59</v>
       </c>
       <c r="F21" s="9" t="s">
@@ -4806,20 +4953,20 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>188</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="21" t="s">
+      <c r="E22" s="32"/>
+      <c r="F22" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="21"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
@@ -4827,7 +4974,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>191</v>
@@ -4835,11 +4982,11 @@
       <c r="D23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="34"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="21"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
@@ -4847,7 +4994,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>190</v>
@@ -4855,11 +5002,11 @@
       <c r="D24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="35"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="21"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
@@ -4867,7 +5014,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>189</v>
@@ -4875,13 +5022,15 @@
       <c r="D25" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="26" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="21"/>
+      <c r="G25" s="9" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
@@ -4889,19 +5038,21 @@
         <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="D26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="29"/>
+      <c r="E26" s="28"/>
       <c r="F26" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
@@ -4909,19 +5060,21 @@
         <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>197</v>
-      </c>
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="29"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="9"/>
+      <c r="G27" s="9" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
@@ -4929,19 +5082,21 @@
         <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="30"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
@@ -4949,19 +5104,21 @@
         <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="13"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="21"/>
+      <c r="G29" s="9" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
@@ -4969,15 +5126,17 @@
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="F30" s="9" t="s">
         <v>39</v>
       </c>
@@ -4989,19 +5148,23 @@
         <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="9"/>
+      <c r="E31" s="26" t="s">
+        <v>50</v>
+      </c>
       <c r="F31" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="9"/>
+      <c r="G31" s="9" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
@@ -5009,19 +5172,21 @@
         <v>29</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="13"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="9"/>
+      <c r="G32" s="9" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
@@ -5029,35 +5194,43 @@
         <v>30</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>251</v>
+        <v>244</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>247</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>253</v>
+      <c r="B34" s="14" t="s">
+        <v>249</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
@@ -5065,16 +5238,20 @@
         <v>32</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="E35" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5083,17 +5260,23 @@
         <v>33</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="E36" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
@@ -5101,16 +5284,20 @@
         <v>34</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+      <c r="E37" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5119,16 +5306,18 @@
         <v>35</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5137,16 +5326,18 @@
         <v>36</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5155,17 +5346,23 @@
         <v>37</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
+      <c r="E40" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
@@ -5173,17 +5370,21 @@
         <v>38</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
@@ -5191,17 +5392,21 @@
         <v>39</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
@@ -5209,17 +5414,21 @@
         <v>40</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
@@ -5227,17 +5436,21 @@
         <v>41</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
@@ -5245,310 +5458,421 @@
         <v>42</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="22">
+      <c r="A46" s="20">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="7"/>
+      <c r="B47" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>271</v>
+      </c>
       <c r="D47" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="7"/>
+      <c r="B48" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>269</v>
+      </c>
       <c r="D48" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-    </row>
-    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E48" s="28"/>
+      <c r="F48" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="7"/>
+      <c r="B49" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>273</v>
+      </c>
       <c r="D49" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-    </row>
-    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E49" s="28"/>
+      <c r="F49" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B50" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="27"/>
+      <c r="F50" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="7"/>
+      <c r="B51" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>166</v>
+      </c>
       <c r="D51" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
+      <c r="E51" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="7"/>
+      <c r="B52" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C52" s="9"/>
       <c r="D52" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
+      <c r="E52" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-    </row>
-    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="9">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F61" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62" s="9"/>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="36"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="36"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="36"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="36"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="36"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="36"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="36"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="36"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="36"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="36"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="36"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="36"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="36"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="36"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="36"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="36"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="36"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="36"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E40:E50"/>
     <mergeCell ref="E9:E20"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="E21:E24"/>
-    <mergeCell ref="E25:E28"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="E25:E29"/>
   </mergeCells>
-  <conditionalFormatting sqref="F25 F4:F6 F8:F9 F14:F16 F18:F22 F62 F27:F29 F31:F35">
+  <conditionalFormatting sqref="F25 F4:F6 F8:F9 F14:F16 F18:F22 F51 F27:F29 F31:F35">
+    <cfRule type="cellIs" dxfId="49" priority="52" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="53" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="54" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F6 F8:F9 F14:F16 F18:F22 F24:F29 F53:F60 F31:F51">
+    <cfRule type="cellIs" dxfId="46" priority="49" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="50" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="51" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
     <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="48" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="48" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F6 F8:F9 F14:F16 F18:F22 F24:F29 F31:F62">
+  <conditionalFormatting sqref="F10:F13">
     <cfRule type="cellIs" dxfId="40" priority="43" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="39" priority="44" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="45" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="45" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
+  <conditionalFormatting sqref="F10:F13">
     <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
@@ -5559,53 +5883,53 @@
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:F13">
-    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>"Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10:F13">
-    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="36" operator="equal">
-      <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F16 F18:F29 F53:F60 F31:F51">
     <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
-      <formula>"Skipped"</formula>
+      <formula>"Failed"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="F17">
     <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F16 F18:F29 F31:F62">
+  <conditionalFormatting sqref="F17">
     <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
-      <formula>"Failed"</formula>
+      <formula>"Skipped"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
       <formula>"Failed"</formula>
@@ -5616,29 +5940,29 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
     <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
-      <formula>"Skipped"</formula>
+      <formula>"Failed"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
+  <conditionalFormatting sqref="F30">
     <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
+  <conditionalFormatting sqref="F30">
     <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
-      <formula>"Failed"</formula>
+      <formula>"Skipped"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>"Failed"</formula>
@@ -5648,40 +5972,40 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
-      <formula>"Skipped"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F62">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F60">
       <formula1>$Z$3:$Z$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -5701,7 +6025,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="65.28515625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="65.28515625" style="14" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="60.5703125" style="12" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" style="12" customWidth="1"/>
@@ -5709,26 +6033,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -5740,7 +6064,7 @@
       <c r="C3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -5807,13 +6131,13 @@
         <f t="shared" ref="A6:A18" si="0">1+A5</f>
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -6006,10 +6330,10 @@
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F18">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6035,7 +6359,7 @@
   <sheetData>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Требования к полям" sheetId="1" r:id="rId1"/>
     <sheet name="Name" sheetId="2" r:id="rId2"/>
     <sheet name="Surname" sheetId="6" r:id="rId3"/>
     <sheet name="Email" sheetId="7" r:id="rId4"/>
-    <sheet name="Все поля" sheetId="5" r:id="rId5"/>
-    <sheet name="Improve" sheetId="8" r:id="rId6"/>
+    <sheet name="Password" sheetId="9" r:id="rId5"/>
+    <sheet name="Все поля" sheetId="5" r:id="rId6"/>
+    <sheet name="Improve" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="310">
   <si>
     <t>Поле "Name:"</t>
   </si>
@@ -974,6 +975,18 @@
   </si>
   <si>
     <t>Данные вставлены в поле</t>
+  </si>
+  <si>
+    <t>Привести хинты к общему образцу</t>
+  </si>
+  <si>
+    <t>Тестирование поля "Password"</t>
+  </si>
+  <si>
+    <t>Проверить отображение текста в поле "Password"</t>
+  </si>
+  <si>
+    <t>Текст "Test" отображается в виде черных кружков в поле "Password"</t>
   </si>
 </sst>
 </file>
@@ -1147,7 +1160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1189,6 +1202,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1196,6 +1212,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1244,12 +1263,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="85">
+  <dxfs count="112">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1261,12 +1333,214 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2290,46 +2564,46 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -2802,26 +3076,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -2887,7 +3161,7 @@
       <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="33" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -2912,7 +3186,7 @@
       <c r="D6" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="32"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
@@ -2932,7 +3206,7 @@
       <c r="D7" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
@@ -2943,22 +3217,22 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="26" t="s">
+      <c r="D8" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="19" t="s">
+      <c r="F8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2976,11 +3250,11 @@
       <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="28"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="20" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2998,11 +3272,11 @@
       <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="20" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3020,11 +3294,11 @@
       <c r="D11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="20" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3062,7 +3336,7 @@
       <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="28" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -3084,7 +3358,7 @@
       <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="9" t="s">
         <v>39</v>
       </c>
@@ -3104,7 +3378,7 @@
       <c r="D15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="27"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="9" t="s">
         <v>40</v>
       </c>
@@ -3148,7 +3422,7 @@
       <c r="D17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="28" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -3172,7 +3446,7 @@
       <c r="D18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="27"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="9" t="s">
         <v>40</v>
       </c>
@@ -3194,7 +3468,7 @@
       <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="28" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -3216,7 +3490,7 @@
       <c r="D20" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="28"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="9" t="s">
         <v>39</v>
       </c>
@@ -3236,7 +3510,7 @@
       <c r="D21" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="28"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="9" t="s">
         <v>39</v>
       </c>
@@ -3256,7 +3530,7 @@
       <c r="D22" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E22" s="28"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="9" t="s">
         <v>39</v>
       </c>
@@ -3276,7 +3550,7 @@
       <c r="D23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="28"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="9" t="s">
         <v>39</v>
       </c>
@@ -3296,7 +3570,7 @@
       <c r="D24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="27"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="9" t="s">
         <v>39</v>
       </c>
@@ -3362,7 +3636,7 @@
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="28" t="s">
         <v>59</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -3386,7 +3660,7 @@
       <c r="D28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="28"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="9" t="s">
         <v>40</v>
       </c>
@@ -3408,7 +3682,7 @@
       <c r="D29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="28"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="9" t="s">
         <v>40</v>
       </c>
@@ -3430,7 +3704,7 @@
       <c r="D30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="27"/>
+      <c r="E30" s="29"/>
       <c r="F30" s="9" t="s">
         <v>40</v>
       </c>
@@ -3452,7 +3726,7 @@
       <c r="D31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="28" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -3474,7 +3748,7 @@
       <c r="D32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="27"/>
+      <c r="E32" s="29"/>
       <c r="F32" s="9" t="s">
         <v>40</v>
       </c>
@@ -3505,49 +3779,49 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
     </row>
   </sheetData>
   <sortState ref="Z3:Z4">
@@ -3565,68 +3839,68 @@
     <mergeCell ref="E8:E11"/>
   </mergeCells>
   <conditionalFormatting sqref="F13:F20 F4:F8 F11">
-    <cfRule type="cellIs" dxfId="84" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="16" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="17" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="18" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F8 F34 F10:F32">
-    <cfRule type="cellIs" dxfId="81" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="13" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="14" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="15" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="78" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="10" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="11" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="12" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F32">
-    <cfRule type="cellIs" dxfId="75" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="7" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="8" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="9" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="4" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="5" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="6" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="2" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="3" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3644,7 +3918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -3660,26 +3934,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -3745,7 +4019,7 @@
       <c r="D5" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="33" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -3770,7 +4044,7 @@
       <c r="D6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="32"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
@@ -3790,7 +4064,7 @@
       <c r="D7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
@@ -3801,22 +4075,22 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="26" t="s">
+      <c r="D8" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="19" t="s">
+      <c r="F8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3834,11 +4108,11 @@
       <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="28"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="20" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3856,11 +4130,11 @@
       <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="20" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3878,11 +4152,11 @@
       <c r="D11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="20" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3920,7 +4194,7 @@
       <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="28" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -3942,7 +4216,7 @@
       <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="9" t="s">
         <v>39</v>
       </c>
@@ -3962,11 +4236,11 @@
       <c r="D15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="27"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="20" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4006,7 +4280,7 @@
       <c r="D17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="28" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -4030,7 +4304,7 @@
       <c r="D18" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E18" s="27"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="9" t="s">
         <v>40</v>
       </c>
@@ -4052,7 +4326,7 @@
       <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="28" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -4074,7 +4348,7 @@
       <c r="D20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="28"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="9" t="s">
         <v>39</v>
       </c>
@@ -4094,7 +4368,7 @@
       <c r="D21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="28"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="9" t="s">
         <v>39</v>
       </c>
@@ -4114,7 +4388,7 @@
       <c r="D22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="28"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="9" t="s">
         <v>39</v>
       </c>
@@ -4134,7 +4408,7 @@
       <c r="D23" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="28"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="9" t="s">
         <v>39</v>
       </c>
@@ -4154,7 +4428,7 @@
       <c r="D24" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="27"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="9" t="s">
         <v>39</v>
       </c>
@@ -4220,7 +4494,7 @@
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="28" t="s">
         <v>59</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -4242,7 +4516,7 @@
       <c r="D28" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E28" s="28"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="9" t="s">
         <v>39</v>
       </c>
@@ -4262,7 +4536,7 @@
       <c r="D29" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E29" s="28"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="9" t="s">
         <v>39</v>
       </c>
@@ -4282,7 +4556,7 @@
       <c r="D30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="27"/>
+      <c r="E30" s="29"/>
       <c r="F30" s="9" t="s">
         <v>39</v>
       </c>
@@ -4302,7 +4576,7 @@
       <c r="D31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="28" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -4326,7 +4600,7 @@
       <c r="D32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="27"/>
+      <c r="E32" s="29"/>
       <c r="F32" s="9" t="s">
         <v>40</v>
       </c>
@@ -4357,49 +4631,49 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4414,65 +4688,65 @@
     <mergeCell ref="E27:E30"/>
   </mergeCells>
   <conditionalFormatting sqref="F13:F20 F4:F8 F11">
-    <cfRule type="cellIs" dxfId="66" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="15" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="16" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="17" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F8 F34 F10:F32">
-    <cfRule type="cellIs" dxfId="63" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="12" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="13" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="14" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="60" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="9" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="10" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="11" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F32">
-    <cfRule type="cellIs" dxfId="57" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="7" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="8" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="4" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="5" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="6" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="3" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4490,8 +4764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4506,26 +4780,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -4589,7 +4863,7 @@
       <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="33" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -4612,9 +4886,9 @@
         <v>166</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="32"/>
+        <v>162</v>
+      </c>
+      <c r="E6" s="34"/>
       <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
@@ -4632,9 +4906,9 @@
         <v>169</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="32"/>
+        <v>162</v>
+      </c>
+      <c r="E7" s="34"/>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
@@ -4654,7 +4928,7 @@
       <c r="D8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="9" t="s">
         <v>39</v>
       </c>
@@ -4674,7 +4948,7 @@
       <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="28" t="s">
         <v>50</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -4698,7 +4972,7 @@
       <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
@@ -4720,7 +4994,7 @@
       <c r="D11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
@@ -4742,7 +5016,7 @@
       <c r="D12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="28"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="9" t="s">
         <v>40</v>
       </c>
@@ -4764,7 +5038,7 @@
       <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="28"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="9" t="s">
         <v>40</v>
       </c>
@@ -4786,7 +5060,7 @@
       <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="9" t="s">
         <v>40</v>
       </c>
@@ -4808,7 +5082,7 @@
       <c r="D15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="28"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="9" t="s">
         <v>40</v>
       </c>
@@ -4828,9 +5102,9 @@
         <v>177</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="28"/>
+        <v>162</v>
+      </c>
+      <c r="E16" s="30"/>
       <c r="F16" s="9" t="s">
         <v>40</v>
       </c>
@@ -4850,9 +5124,9 @@
         <v>179</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="28"/>
+        <v>162</v>
+      </c>
+      <c r="E17" s="30"/>
       <c r="F17" s="9" t="s">
         <v>40</v>
       </c>
@@ -4874,7 +5148,7 @@
       <c r="D18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="28"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="9" t="s">
         <v>40</v>
       </c>
@@ -4896,7 +5170,7 @@
       <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="28"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="9" t="s">
         <v>40</v>
       </c>
@@ -4918,7 +5192,7 @@
       <c r="D20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="27"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="9" t="s">
         <v>40</v>
       </c>
@@ -4940,7 +5214,7 @@
       <c r="D21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="33" t="s">
         <v>59</v>
       </c>
       <c r="F21" s="9" t="s">
@@ -4953,20 +5227,20 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="20" t="s">
         <v>188</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="19" t="s">
+      <c r="E22" s="34"/>
+      <c r="F22" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="19"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
@@ -4982,11 +5256,11 @@
       <c r="D23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="32"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="19"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
@@ -5002,11 +5276,11 @@
       <c r="D24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="33"/>
+      <c r="E24" s="35"/>
       <c r="F24" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="19"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
@@ -5022,7 +5296,7 @@
       <c r="D25" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="28" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="9" t="s">
@@ -5046,7 +5320,7 @@
       <c r="D26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="28"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="9" t="s">
         <v>40</v>
       </c>
@@ -5068,7 +5342,7 @@
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="28"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="9" t="s">
         <v>40</v>
       </c>
@@ -5090,7 +5364,7 @@
       <c r="D28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="28"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="9" t="s">
         <v>40</v>
       </c>
@@ -5112,7 +5386,7 @@
       <c r="D29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="27"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="9" t="s">
         <v>40</v>
       </c>
@@ -5156,7 +5430,7 @@
       <c r="D31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="28" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -5180,7 +5454,7 @@
       <c r="D32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="28"/>
+      <c r="E32" s="30"/>
       <c r="F32" s="9" t="s">
         <v>40</v>
       </c>
@@ -5202,7 +5476,7 @@
       <c r="D33" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="28"/>
+      <c r="E33" s="30"/>
       <c r="F33" s="9" t="s">
         <v>40</v>
       </c>
@@ -5224,7 +5498,7 @@
       <c r="D34" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="27"/>
+      <c r="E34" s="29"/>
       <c r="F34" s="9" t="s">
         <v>40</v>
       </c>
@@ -5292,7 +5566,7 @@
       <c r="D37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="28" t="s">
         <v>59</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -5314,7 +5588,7 @@
       <c r="D38" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="28"/>
+      <c r="E38" s="30"/>
       <c r="F38" s="9" t="s">
         <v>39</v>
       </c>
@@ -5334,7 +5608,7 @@
       <c r="D39" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="27"/>
+      <c r="E39" s="29"/>
       <c r="F39" s="9" t="s">
         <v>39</v>
       </c>
@@ -5354,7 +5628,7 @@
       <c r="D40" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="28" t="s">
         <v>50</v>
       </c>
       <c r="F40" s="9" t="s">
@@ -5378,7 +5652,7 @@
       <c r="D41" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="28"/>
+      <c r="E41" s="30"/>
       <c r="F41" s="9" t="s">
         <v>40</v>
       </c>
@@ -5400,7 +5674,7 @@
       <c r="D42" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="28"/>
+      <c r="E42" s="30"/>
       <c r="F42" s="9" t="s">
         <v>40</v>
       </c>
@@ -5422,7 +5696,7 @@
       <c r="D43" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="28"/>
+      <c r="E43" s="30"/>
       <c r="F43" s="9" t="s">
         <v>40</v>
       </c>
@@ -5444,7 +5718,7 @@
       <c r="D44" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="28"/>
+      <c r="E44" s="30"/>
       <c r="F44" s="9" t="s">
         <v>40</v>
       </c>
@@ -5466,7 +5740,7 @@
       <c r="D45" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="28"/>
+      <c r="E45" s="30"/>
       <c r="F45" s="9" t="s">
         <v>40</v>
       </c>
@@ -5475,7 +5749,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="20">
+      <c r="A46" s="21">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -5488,7 +5762,7 @@
       <c r="D46" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="28"/>
+      <c r="E46" s="30"/>
       <c r="F46" s="9" t="s">
         <v>40</v>
       </c>
@@ -5510,7 +5784,7 @@
       <c r="D47" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="28"/>
+      <c r="E47" s="30"/>
       <c r="F47" s="9" t="s">
         <v>40</v>
       </c>
@@ -5532,7 +5806,7 @@
       <c r="D48" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="28"/>
+      <c r="E48" s="30"/>
       <c r="F48" s="9" t="s">
         <v>40</v>
       </c>
@@ -5554,7 +5828,7 @@
       <c r="D49" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="28"/>
+      <c r="E49" s="30"/>
       <c r="F49" s="9" t="s">
         <v>40</v>
       </c>
@@ -5567,17 +5841,17 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="D50" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" s="27"/>
-      <c r="F50" s="20" t="s">
+      <c r="D50" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="29"/>
+      <c r="F50" s="21" t="s">
         <v>40</v>
       </c>
       <c r="G50" s="9" t="s">
@@ -5627,194 +5901,194 @@
       <c r="G52" s="9"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="36"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="38"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="36"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="38"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="36"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="38"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="36"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="38"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="36"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="38"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="36"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="38"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="36"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="38"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="36"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="38"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="36"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="38"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="36"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="38"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="36"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="38"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="36"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="38"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="36"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="38"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="36"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="38"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="36"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="38"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="36"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="38"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="36"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="38"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="36"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="38"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="36"/>
+      <c r="A71" s="22"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5829,178 +6103,178 @@
     <mergeCell ref="E25:E29"/>
   </mergeCells>
   <conditionalFormatting sqref="F25 F4:F6 F8:F9 F14:F16 F18:F22 F51 F27:F29 F31:F35">
-    <cfRule type="cellIs" dxfId="49" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="52" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="53" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="54" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F6 F8:F9 F14:F16 F18:F22 F24:F29 F53:F60 F31:F51">
-    <cfRule type="cellIs" dxfId="46" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="49" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="50" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="51" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="46" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="47" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="48" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F13">
-    <cfRule type="cellIs" dxfId="40" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="43" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="44" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="45" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F13">
-    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="40" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="41" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="42" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="31" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="32" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="33" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="28" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="29" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="30" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F16 F18:F29 F53:F60 F31:F51">
-    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="25" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="26" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="27" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="22" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="23" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="24" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="19" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="20" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="21" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="16" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="17" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="18" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="13" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="14" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="15" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="12" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6015,6 +6289,1106 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="14"/>
+    <col min="7" max="7" width="18.42578125" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="Z4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <f>1+A4</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="Z5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <f t="shared" ref="A6:A55" si="0">1+A5</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" s="44"/>
+      <c r="F29" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="41"/>
+      <c r="F32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="41"/>
+      <c r="F36" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="19"/>
+      <c r="F40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" s="41"/>
+      <c r="F42" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E43" s="41"/>
+      <c r="F43" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E44" s="41"/>
+      <c r="F44" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="41"/>
+      <c r="F45" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="19"/>
+      <c r="F46" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="41"/>
+      <c r="F50" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="41"/>
+      <c r="F51" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="19"/>
+      <c r="F52" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" s="19"/>
+      <c r="F54" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F35:F42 F33 F4 F27:F30">
+    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F54 F4 F27:F30">
+    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4 F27:F54">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F26">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F26">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"Skipped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F26">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F55">
+      <formula1>$Z$3:$Z$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z18"/>
   <sheetViews>
@@ -6033,26 +7407,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -6330,10 +7704,10 @@
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F18">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6347,12 +7721,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4"/>
+  <dimension ref="A4:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6362,6 +7736,11 @@
         <v>213</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>306</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="311">
   <si>
     <t>Поле "Name:"</t>
   </si>
@@ -987,6 +987,9 @@
   </si>
   <si>
     <t>Текст "Test" отображается в виде черных кружков в поле "Password"</t>
+  </si>
+  <si>
+    <t>Bug report ID.59</t>
   </si>
 </sst>
 </file>
@@ -3918,7 +3921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -4764,8 +4767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6292,8 +6295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6397,7 +6400,9 @@
       <c r="F5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>310</v>
+      </c>
       <c r="Z5" t="s">
         <v>58</v>
       </c>

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="330">
   <si>
     <t>Поле "Name:"</t>
   </si>
@@ -990,6 +990,63 @@
   </si>
   <si>
     <t>Bug report ID.59</t>
+  </si>
+  <si>
+    <t>Ввод киррилических букв, остальные символы соответствуют требованиям</t>
+  </si>
+  <si>
+    <t>Ввод латинских букв, остальные символы соответствуют требованиям</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Ssff22!</t>
+  </si>
+  <si>
+    <t>Windows 10 Pro Opera 77.0.4054.204</t>
+  </si>
+  <si>
+    <t>Windows 10 Pro Opera 77.0.4054.205</t>
+  </si>
+  <si>
+    <t>Windows 10 Pro Opera 77.0.4054.206</t>
+  </si>
+  <si>
+    <t>Windows 10 Pro Opera 77.0.4054.207</t>
+  </si>
+  <si>
+    <t>Windows 10 Pro Opera 77.0.4054.208</t>
+  </si>
+  <si>
+    <t>Windows 10 Pro Opera 77.0.4054.209</t>
+  </si>
+  <si>
+    <t>Windows 10 Pro Opera 77.0.4054.210</t>
+  </si>
+  <si>
+    <t>Windows 10 Pro Opera 77.0.4054.211</t>
+  </si>
+  <si>
+    <t>Windows 10 Pro Opera 77.0.4054.212</t>
+  </si>
+  <si>
+    <t>Windows 10 Pro Opera 77.0.4054.213</t>
+  </si>
+  <si>
+    <t>Ввод латинских букв только в верхнем регистре, остальные символы соответствуют требованиям</t>
+  </si>
+  <si>
+    <t>SSFF22!</t>
+  </si>
+  <si>
+    <t>ssff22!</t>
+  </si>
+  <si>
+    <t>Ввод латинских букв только в нижнем регистре, остальные символы соответствуют требованиям</t>
+  </si>
+  <si>
+    <t>Ссфф22!</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1218,6 +1275,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2567,46 +2627,46 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -3079,26 +3139,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -3164,7 +3224,7 @@
       <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="34" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -3189,7 +3249,7 @@
       <c r="D6" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
@@ -3209,7 +3269,7 @@
       <c r="D7" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="35"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
@@ -3229,7 +3289,7 @@
       <c r="D8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="29" t="s">
         <v>50</v>
       </c>
       <c r="F8" s="20" t="s">
@@ -3253,7 +3313,7 @@
       <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="30"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="9" t="s">
         <v>40</v>
       </c>
@@ -3275,7 +3335,7 @@
       <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
@@ -3297,7 +3357,7 @@
       <c r="D11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="29"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
@@ -3339,7 +3399,7 @@
       <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="29" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -3361,7 +3421,7 @@
       <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="9" t="s">
         <v>39</v>
       </c>
@@ -3381,7 +3441,7 @@
       <c r="D15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="29"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="9" t="s">
         <v>40</v>
       </c>
@@ -3425,7 +3485,7 @@
       <c r="D17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="29" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -3449,7 +3509,7 @@
       <c r="D18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="29"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="9" t="s">
         <v>40</v>
       </c>
@@ -3471,7 +3531,7 @@
       <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="29" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -3493,7 +3553,7 @@
       <c r="D20" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="30"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="9" t="s">
         <v>39</v>
       </c>
@@ -3513,7 +3573,7 @@
       <c r="D21" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="30"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="9" t="s">
         <v>39</v>
       </c>
@@ -3533,7 +3593,7 @@
       <c r="D22" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E22" s="30"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="9" t="s">
         <v>39</v>
       </c>
@@ -3553,7 +3613,7 @@
       <c r="D23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="30"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="9" t="s">
         <v>39</v>
       </c>
@@ -3573,7 +3633,7 @@
       <c r="D24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="29"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="9" t="s">
         <v>39</v>
       </c>
@@ -3639,7 +3699,7 @@
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="29" t="s">
         <v>59</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -3663,7 +3723,7 @@
       <c r="D28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="30"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="9" t="s">
         <v>40</v>
       </c>
@@ -3685,7 +3745,7 @@
       <c r="D29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="30"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="9" t="s">
         <v>40</v>
       </c>
@@ -3707,7 +3767,7 @@
       <c r="D30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="29"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="9" t="s">
         <v>40</v>
       </c>
@@ -3729,7 +3789,7 @@
       <c r="D31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="29" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -3751,7 +3811,7 @@
       <c r="D32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="29"/>
+      <c r="E32" s="30"/>
       <c r="F32" s="9" t="s">
         <v>40</v>
       </c>
@@ -3937,26 +3997,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -4022,7 +4082,7 @@
       <c r="D5" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="34" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -4047,7 +4107,7 @@
       <c r="D6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
@@ -4067,7 +4127,7 @@
       <c r="D7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="35"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
@@ -4087,7 +4147,7 @@
       <c r="D8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="29" t="s">
         <v>50</v>
       </c>
       <c r="F8" s="20" t="s">
@@ -4111,7 +4171,7 @@
       <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="30"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="9" t="s">
         <v>40</v>
       </c>
@@ -4133,7 +4193,7 @@
       <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
@@ -4155,7 +4215,7 @@
       <c r="D11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="29"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
@@ -4197,7 +4257,7 @@
       <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="29" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -4219,7 +4279,7 @@
       <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="9" t="s">
         <v>39</v>
       </c>
@@ -4239,7 +4299,7 @@
       <c r="D15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="29"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="9" t="s">
         <v>40</v>
       </c>
@@ -4283,7 +4343,7 @@
       <c r="D17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="29" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -4307,7 +4367,7 @@
       <c r="D18" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E18" s="29"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="9" t="s">
         <v>40</v>
       </c>
@@ -4329,7 +4389,7 @@
       <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="29" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -4351,7 +4411,7 @@
       <c r="D20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="30"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="9" t="s">
         <v>39</v>
       </c>
@@ -4371,7 +4431,7 @@
       <c r="D21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="30"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="9" t="s">
         <v>39</v>
       </c>
@@ -4391,7 +4451,7 @@
       <c r="D22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="30"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="9" t="s">
         <v>39</v>
       </c>
@@ -4411,7 +4471,7 @@
       <c r="D23" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="30"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="9" t="s">
         <v>39</v>
       </c>
@@ -4431,7 +4491,7 @@
       <c r="D24" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="29"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="9" t="s">
         <v>39</v>
       </c>
@@ -4497,7 +4557,7 @@
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="29" t="s">
         <v>59</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -4519,7 +4579,7 @@
       <c r="D28" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E28" s="30"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="9" t="s">
         <v>39</v>
       </c>
@@ -4539,7 +4599,7 @@
       <c r="D29" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E29" s="30"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="9" t="s">
         <v>39</v>
       </c>
@@ -4559,7 +4619,7 @@
       <c r="D30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="29"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="9" t="s">
         <v>39</v>
       </c>
@@ -4579,7 +4639,7 @@
       <c r="D31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="29" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -4603,7 +4663,7 @@
       <c r="D32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="29"/>
+      <c r="E32" s="30"/>
       <c r="F32" s="9" t="s">
         <v>40</v>
       </c>
@@ -4767,7 +4827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
@@ -4783,26 +4843,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -4866,7 +4926,7 @@
       <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="34" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -4891,7 +4951,7 @@
       <c r="D6" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
@@ -4911,7 +4971,7 @@
       <c r="D7" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
@@ -4931,7 +4991,7 @@
       <c r="D8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="35"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="9" t="s">
         <v>39</v>
       </c>
@@ -4951,7 +5011,7 @@
       <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="29" t="s">
         <v>50</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -4975,7 +5035,7 @@
       <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
@@ -4997,7 +5057,7 @@
       <c r="D11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
@@ -5019,7 +5079,7 @@
       <c r="D12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="30"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="9" t="s">
         <v>40</v>
       </c>
@@ -5041,7 +5101,7 @@
       <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="30"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="9" t="s">
         <v>40</v>
       </c>
@@ -5063,7 +5123,7 @@
       <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="9" t="s">
         <v>40</v>
       </c>
@@ -5085,7 +5145,7 @@
       <c r="D15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="30"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="9" t="s">
         <v>40</v>
       </c>
@@ -5107,7 +5167,7 @@
       <c r="D16" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E16" s="30"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="9" t="s">
         <v>40</v>
       </c>
@@ -5129,7 +5189,7 @@
       <c r="D17" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="30"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="9" t="s">
         <v>40</v>
       </c>
@@ -5151,7 +5211,7 @@
       <c r="D18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="30"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="9" t="s">
         <v>40</v>
       </c>
@@ -5173,7 +5233,7 @@
       <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="30"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="9" t="s">
         <v>40</v>
       </c>
@@ -5195,7 +5255,7 @@
       <c r="D20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="29"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="9" t="s">
         <v>40</v>
       </c>
@@ -5217,7 +5277,7 @@
       <c r="D21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="34" t="s">
         <v>59</v>
       </c>
       <c r="F21" s="9" t="s">
@@ -5239,7 +5299,7 @@
       <c r="D22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="34"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="20" t="s">
         <v>39</v>
       </c>
@@ -5259,7 +5319,7 @@
       <c r="D23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="34"/>
+      <c r="E23" s="35"/>
       <c r="F23" s="9" t="s">
         <v>39</v>
       </c>
@@ -5279,7 +5339,7 @@
       <c r="D24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="35"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="9" t="s">
         <v>39</v>
       </c>
@@ -5299,7 +5359,7 @@
       <c r="D25" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="29" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="9" t="s">
@@ -5323,7 +5383,7 @@
       <c r="D26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="30"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="9" t="s">
         <v>40</v>
       </c>
@@ -5345,7 +5405,7 @@
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="30"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="9" t="s">
         <v>40</v>
       </c>
@@ -5367,7 +5427,7 @@
       <c r="D28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="30"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="9" t="s">
         <v>40</v>
       </c>
@@ -5389,7 +5449,7 @@
       <c r="D29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="29"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="9" t="s">
         <v>40</v>
       </c>
@@ -5433,7 +5493,7 @@
       <c r="D31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="29" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -5457,7 +5517,7 @@
       <c r="D32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="30"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="9" t="s">
         <v>40</v>
       </c>
@@ -5479,7 +5539,7 @@
       <c r="D33" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="30"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="9" t="s">
         <v>40</v>
       </c>
@@ -5501,7 +5561,7 @@
       <c r="D34" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="29"/>
+      <c r="E34" s="30"/>
       <c r="F34" s="9" t="s">
         <v>40</v>
       </c>
@@ -5569,7 +5629,7 @@
       <c r="D37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="29" t="s">
         <v>59</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -5591,7 +5651,7 @@
       <c r="D38" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="30"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="9" t="s">
         <v>39</v>
       </c>
@@ -5611,7 +5671,7 @@
       <c r="D39" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="29"/>
+      <c r="E39" s="30"/>
       <c r="F39" s="9" t="s">
         <v>39</v>
       </c>
@@ -5631,7 +5691,7 @@
       <c r="D40" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="29" t="s">
         <v>50</v>
       </c>
       <c r="F40" s="9" t="s">
@@ -5655,7 +5715,7 @@
       <c r="D41" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="30"/>
+      <c r="E41" s="31"/>
       <c r="F41" s="9" t="s">
         <v>40</v>
       </c>
@@ -5677,7 +5737,7 @@
       <c r="D42" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="30"/>
+      <c r="E42" s="31"/>
       <c r="F42" s="9" t="s">
         <v>40</v>
       </c>
@@ -5699,7 +5759,7 @@
       <c r="D43" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="30"/>
+      <c r="E43" s="31"/>
       <c r="F43" s="9" t="s">
         <v>40</v>
       </c>
@@ -5721,7 +5781,7 @@
       <c r="D44" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="30"/>
+      <c r="E44" s="31"/>
       <c r="F44" s="9" t="s">
         <v>40</v>
       </c>
@@ -5743,7 +5803,7 @@
       <c r="D45" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="30"/>
+      <c r="E45" s="31"/>
       <c r="F45" s="9" t="s">
         <v>40</v>
       </c>
@@ -5765,7 +5825,7 @@
       <c r="D46" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="30"/>
+      <c r="E46" s="31"/>
       <c r="F46" s="9" t="s">
         <v>40</v>
       </c>
@@ -5787,7 +5847,7 @@
       <c r="D47" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="30"/>
+      <c r="E47" s="31"/>
       <c r="F47" s="9" t="s">
         <v>40</v>
       </c>
@@ -5809,7 +5869,7 @@
       <c r="D48" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="30"/>
+      <c r="E48" s="31"/>
       <c r="F48" s="9" t="s">
         <v>40</v>
       </c>
@@ -5831,7 +5891,7 @@
       <c r="D49" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="30"/>
+      <c r="E49" s="31"/>
       <c r="F49" s="9" t="s">
         <v>40</v>
       </c>
@@ -5853,7 +5913,7 @@
       <c r="D50" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="29"/>
+      <c r="E50" s="30"/>
       <c r="F50" s="21" t="s">
         <v>40</v>
       </c>
@@ -5906,82 +5966,82 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
-      <c r="C53" s="39"/>
+      <c r="C53" s="40"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
-      <c r="H53" s="38"/>
+      <c r="H53" s="39"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
       <c r="B54" s="22"/>
-      <c r="C54" s="39"/>
+      <c r="C54" s="40"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
-      <c r="H54" s="38"/>
+      <c r="H54" s="39"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
-      <c r="C55" s="39"/>
+      <c r="C55" s="40"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
-      <c r="H55" s="38"/>
+      <c r="H55" s="39"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
-      <c r="C56" s="39"/>
+      <c r="C56" s="40"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
-      <c r="H56" s="38"/>
+      <c r="H56" s="39"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
       <c r="B57" s="22"/>
-      <c r="C57" s="39"/>
+      <c r="C57" s="40"/>
       <c r="D57" s="22"/>
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
-      <c r="H57" s="38"/>
+      <c r="H57" s="39"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
       <c r="B58" s="22"/>
-      <c r="C58" s="39"/>
+      <c r="C58" s="40"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
-      <c r="H58" s="38"/>
+      <c r="H58" s="39"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
       <c r="B59" s="22"/>
-      <c r="C59" s="39"/>
+      <c r="C59" s="40"/>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
-      <c r="H59" s="38"/>
+      <c r="H59" s="39"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
       <c r="B60" s="22"/>
-      <c r="C60" s="39"/>
+      <c r="C60" s="40"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
-      <c r="H60" s="38"/>
+      <c r="H60" s="39"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
@@ -5991,7 +6051,7 @@
       <c r="E61" s="22"/>
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
-      <c r="H61" s="38"/>
+      <c r="H61" s="39"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
@@ -6001,7 +6061,7 @@
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
       <c r="G62" s="22"/>
-      <c r="H62" s="38"/>
+      <c r="H62" s="39"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>
@@ -6011,7 +6071,7 @@
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
       <c r="G63" s="22"/>
-      <c r="H63" s="38"/>
+      <c r="H63" s="39"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="22"/>
@@ -6021,7 +6081,7 @@
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
       <c r="G64" s="22"/>
-      <c r="H64" s="38"/>
+      <c r="H64" s="39"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="22"/>
@@ -6031,7 +6091,7 @@
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
       <c r="G65" s="22"/>
-      <c r="H65" s="38"/>
+      <c r="H65" s="39"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="22"/>
@@ -6041,7 +6101,7 @@
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
-      <c r="H66" s="38"/>
+      <c r="H66" s="39"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="22"/>
@@ -6051,7 +6111,7 @@
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
-      <c r="H67" s="38"/>
+      <c r="H67" s="39"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="22"/>
@@ -6061,7 +6121,7 @@
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
-      <c r="H68" s="38"/>
+      <c r="H68" s="39"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="22"/>
@@ -6071,7 +6131,7 @@
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
       <c r="G69" s="22"/>
-      <c r="H69" s="38"/>
+      <c r="H69" s="39"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="22"/>
@@ -6081,7 +6141,7 @@
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
       <c r="G70" s="22"/>
-      <c r="H70" s="38"/>
+      <c r="H70" s="39"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
@@ -6091,7 +6151,7 @@
       <c r="E71" s="22"/>
       <c r="F71" s="22"/>
       <c r="G71" s="22"/>
-      <c r="H71" s="38"/>
+      <c r="H71" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6296,7 +6356,7 @@
   <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6311,26 +6371,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -6366,7 +6426,7 @@
         <v>308</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>63</v>
+        <v>313</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>41</v>
@@ -6407,123 +6467,171 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <f t="shared" ref="A6:A55" si="0">1+A5</f>
         <v>3</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="9"/>
+      <c r="B7" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="45"/>
+      <c r="D10" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E10" s="46"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="45"/>
+      <c r="D11" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E11" s="46"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="45"/>
+      <c r="D12" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E12" s="46"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="45"/>
+      <c r="D13" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E13" s="46"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="45"/>
+      <c r="D14" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="E14" s="46"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="45"/>
+      <c r="D15" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E15" s="46"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
@@ -6535,7 +6643,7 @@
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="45"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
@@ -6547,7 +6655,7 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="45"/>
+      <c r="E17" s="46"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
@@ -6559,7 +6667,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="45"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
@@ -6571,7 +6679,7 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="45"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
@@ -6583,7 +6691,7 @@
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="45"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
@@ -6595,7 +6703,7 @@
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="45"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
@@ -6607,7 +6715,7 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="45"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
@@ -6619,7 +6727,7 @@
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="45"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
@@ -6631,7 +6739,7 @@
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="45"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
@@ -6643,7 +6751,7 @@
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="45"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
@@ -6655,7 +6763,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="45"/>
+      <c r="E26" s="46"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
@@ -6673,7 +6781,7 @@
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="43" t="s">
         <v>59</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -6695,7 +6803,7 @@
       <c r="D28" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E28" s="43"/>
+      <c r="E28" s="44"/>
       <c r="F28" s="9" t="s">
         <v>39</v>
       </c>
@@ -6715,7 +6823,7 @@
       <c r="D29" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E29" s="44"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="9" t="s">
         <v>39</v>
       </c>
@@ -6735,7 +6843,7 @@
       <c r="D30" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="41" t="s">
         <v>50</v>
       </c>
       <c r="F30" s="23" t="s">
@@ -6759,7 +6867,7 @@
       <c r="D31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="41"/>
+      <c r="E31" s="42"/>
       <c r="F31" s="9" t="s">
         <v>40</v>
       </c>
@@ -6781,7 +6889,7 @@
       <c r="D32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="41"/>
+      <c r="E32" s="42"/>
       <c r="F32" s="9" t="s">
         <v>40</v>
       </c>
@@ -6841,7 +6949,7 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="40"/>
+      <c r="E35" s="41"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
@@ -6859,7 +6967,7 @@
       <c r="D36" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="41"/>
+      <c r="E36" s="42"/>
       <c r="F36" s="9" t="s">
         <v>39</v>
       </c>
@@ -6923,7 +7031,7 @@
       <c r="D39" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="41" t="s">
         <v>50</v>
       </c>
       <c r="F39" s="9" t="s">
@@ -6969,7 +7077,7 @@
       <c r="D41" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="40" t="s">
+      <c r="E41" s="41" t="s">
         <v>59</v>
       </c>
       <c r="F41" s="9" t="s">
@@ -6991,7 +7099,7 @@
       <c r="D42" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E42" s="41"/>
+      <c r="E42" s="42"/>
       <c r="F42" s="9" t="s">
         <v>39</v>
       </c>
@@ -7011,7 +7119,7 @@
       <c r="D43" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E43" s="41"/>
+      <c r="E43" s="42"/>
       <c r="F43" s="9" t="s">
         <v>39</v>
       </c>
@@ -7031,7 +7139,7 @@
       <c r="D44" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E44" s="41"/>
+      <c r="E44" s="42"/>
       <c r="F44" s="9" t="s">
         <v>39</v>
       </c>
@@ -7051,7 +7159,7 @@
       <c r="D45" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="41"/>
+      <c r="E45" s="42"/>
       <c r="F45" s="9" t="s">
         <v>39</v>
       </c>
@@ -7137,7 +7245,7 @@
       <c r="D49" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="41" t="s">
         <v>59</v>
       </c>
       <c r="F49" s="9" t="s">
@@ -7161,7 +7269,7 @@
       <c r="D50" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="41"/>
+      <c r="E50" s="42"/>
       <c r="F50" s="9" t="s">
         <v>40</v>
       </c>
@@ -7183,7 +7291,7 @@
       <c r="D51" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="41"/>
+      <c r="E51" s="42"/>
       <c r="F51" s="9" t="s">
         <v>40</v>
       </c>
@@ -7227,7 +7335,7 @@
       <c r="D53" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="40" t="s">
+      <c r="E53" s="41" t="s">
         <v>50</v>
       </c>
       <c r="F53" s="9" t="s">
@@ -7280,7 +7388,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="E7:E9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
   </mergeCells>
@@ -7412,26 +7521,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="334">
   <si>
     <t>Поле "Name:"</t>
   </si>
@@ -1047,6 +1047,18 @@
   </si>
   <si>
     <t>Ссфф22!</t>
+  </si>
+  <si>
+    <t>Ввод пароля без цифры,  остальные символы соответствуют требованиям</t>
+  </si>
+  <si>
+    <t>Ssff!!</t>
+  </si>
+  <si>
+    <t>Ввод пароля с одной буквой из кириллицы,  остальные символы соответствуют требованиям</t>
+  </si>
+  <si>
+    <t>SsffЕ22!</t>
   </si>
 </sst>
 </file>
@@ -1280,48 +1292,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1344,6 +1314,48 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
@@ -1352,6 +1364,26 @@
   <dxfs count="112">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1426,26 +1458,6 @@
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2627,46 +2639,46 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -3139,26 +3151,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -3224,7 +3236,7 @@
       <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="39" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -3249,7 +3261,7 @@
       <c r="D6" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="35"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
@@ -3269,7 +3281,7 @@
       <c r="D7" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
@@ -3289,7 +3301,7 @@
       <c r="D8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="42" t="s">
         <v>50</v>
       </c>
       <c r="F8" s="20" t="s">
@@ -3313,7 +3325,7 @@
       <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="31"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="9" t="s">
         <v>40</v>
       </c>
@@ -3335,7 +3347,7 @@
       <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="31"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
@@ -3357,7 +3369,7 @@
       <c r="D11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
@@ -3399,7 +3411,7 @@
       <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="42" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -3421,7 +3433,7 @@
       <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="31"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="9" t="s">
         <v>39</v>
       </c>
@@ -3441,7 +3453,7 @@
       <c r="D15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="30"/>
+      <c r="E15" s="44"/>
       <c r="F15" s="9" t="s">
         <v>40</v>
       </c>
@@ -3485,7 +3497,7 @@
       <c r="D17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="42" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -3509,7 +3521,7 @@
       <c r="D18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="30"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="9" t="s">
         <v>40</v>
       </c>
@@ -3531,7 +3543,7 @@
       <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="42" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -3553,7 +3565,7 @@
       <c r="D20" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="31"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="9" t="s">
         <v>39</v>
       </c>
@@ -3573,7 +3585,7 @@
       <c r="D21" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="31"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="9" t="s">
         <v>39</v>
       </c>
@@ -3593,7 +3605,7 @@
       <c r="D22" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="9" t="s">
         <v>39</v>
       </c>
@@ -3613,7 +3625,7 @@
       <c r="D23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="31"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="9" t="s">
         <v>39</v>
       </c>
@@ -3633,7 +3645,7 @@
       <c r="D24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="30"/>
+      <c r="E24" s="44"/>
       <c r="F24" s="9" t="s">
         <v>39</v>
       </c>
@@ -3699,7 +3711,7 @@
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="42" t="s">
         <v>59</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -3723,7 +3735,7 @@
       <c r="D28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="31"/>
+      <c r="E28" s="43"/>
       <c r="F28" s="9" t="s">
         <v>40</v>
       </c>
@@ -3745,7 +3757,7 @@
       <c r="D29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="31"/>
+      <c r="E29" s="43"/>
       <c r="F29" s="9" t="s">
         <v>40</v>
       </c>
@@ -3767,7 +3779,7 @@
       <c r="D30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="30"/>
+      <c r="E30" s="44"/>
       <c r="F30" s="9" t="s">
         <v>40</v>
       </c>
@@ -3789,7 +3801,7 @@
       <c r="D31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="42" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -3811,7 +3823,7 @@
       <c r="D32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="30"/>
+      <c r="E32" s="44"/>
       <c r="F32" s="9" t="s">
         <v>40</v>
       </c>
@@ -3997,26 +4009,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -4082,7 +4094,7 @@
       <c r="D5" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="39" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -4107,7 +4119,7 @@
       <c r="D6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="35"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
@@ -4127,7 +4139,7 @@
       <c r="D7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
@@ -4147,7 +4159,7 @@
       <c r="D8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="42" t="s">
         <v>50</v>
       </c>
       <c r="F8" s="20" t="s">
@@ -4171,7 +4183,7 @@
       <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="31"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="9" t="s">
         <v>40</v>
       </c>
@@ -4193,7 +4205,7 @@
       <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="31"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
@@ -4215,7 +4227,7 @@
       <c r="D11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
@@ -4257,7 +4269,7 @@
       <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="42" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -4279,7 +4291,7 @@
       <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="31"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="9" t="s">
         <v>39</v>
       </c>
@@ -4299,7 +4311,7 @@
       <c r="D15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="30"/>
+      <c r="E15" s="44"/>
       <c r="F15" s="9" t="s">
         <v>40</v>
       </c>
@@ -4343,7 +4355,7 @@
       <c r="D17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="42" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -4367,7 +4379,7 @@
       <c r="D18" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E18" s="30"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="9" t="s">
         <v>40</v>
       </c>
@@ -4389,7 +4401,7 @@
       <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="42" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -4411,7 +4423,7 @@
       <c r="D20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="31"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="9" t="s">
         <v>39</v>
       </c>
@@ -4431,7 +4443,7 @@
       <c r="D21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="31"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="9" t="s">
         <v>39</v>
       </c>
@@ -4451,7 +4463,7 @@
       <c r="D22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="9" t="s">
         <v>39</v>
       </c>
@@ -4471,7 +4483,7 @@
       <c r="D23" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="31"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="9" t="s">
         <v>39</v>
       </c>
@@ -4491,7 +4503,7 @@
       <c r="D24" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="30"/>
+      <c r="E24" s="44"/>
       <c r="F24" s="9" t="s">
         <v>39</v>
       </c>
@@ -4557,7 +4569,7 @@
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="42" t="s">
         <v>59</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -4579,7 +4591,7 @@
       <c r="D28" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E28" s="31"/>
+      <c r="E28" s="43"/>
       <c r="F28" s="9" t="s">
         <v>39</v>
       </c>
@@ -4599,7 +4611,7 @@
       <c r="D29" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E29" s="31"/>
+      <c r="E29" s="43"/>
       <c r="F29" s="9" t="s">
         <v>39</v>
       </c>
@@ -4619,7 +4631,7 @@
       <c r="D30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="30"/>
+      <c r="E30" s="44"/>
       <c r="F30" s="9" t="s">
         <v>39</v>
       </c>
@@ -4639,7 +4651,7 @@
       <c r="D31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="42" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -4663,7 +4675,7 @@
       <c r="D32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="30"/>
+      <c r="E32" s="44"/>
       <c r="F32" s="9" t="s">
         <v>40</v>
       </c>
@@ -4843,26 +4855,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -4926,7 +4938,7 @@
       <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="39" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -4939,7 +4951,7 @@
     </row>
     <row r="6" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <f t="shared" ref="A6:A62" si="0">1+A5</f>
+        <f t="shared" ref="A6:A52" si="0">1+A5</f>
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -4951,7 +4963,7 @@
       <c r="D6" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="35"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
@@ -4971,7 +4983,7 @@
       <c r="D7" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="35"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
@@ -4991,7 +5003,7 @@
       <c r="D8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="36"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="9" t="s">
         <v>39</v>
       </c>
@@ -5011,7 +5023,7 @@
       <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="42" t="s">
         <v>50</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -5035,7 +5047,7 @@
       <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="31"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
@@ -5057,7 +5069,7 @@
       <c r="D11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="31"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
@@ -5079,7 +5091,7 @@
       <c r="D12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="31"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="9" t="s">
         <v>40</v>
       </c>
@@ -5101,7 +5113,7 @@
       <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="31"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="9" t="s">
         <v>40</v>
       </c>
@@ -5123,7 +5135,7 @@
       <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="31"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="9" t="s">
         <v>40</v>
       </c>
@@ -5145,7 +5157,7 @@
       <c r="D15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="31"/>
+      <c r="E15" s="43"/>
       <c r="F15" s="9" t="s">
         <v>40</v>
       </c>
@@ -5167,7 +5179,7 @@
       <c r="D16" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E16" s="31"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="9" t="s">
         <v>40</v>
       </c>
@@ -5189,7 +5201,7 @@
       <c r="D17" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="31"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="9" t="s">
         <v>40</v>
       </c>
@@ -5211,7 +5223,7 @@
       <c r="D18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="31"/>
+      <c r="E18" s="43"/>
       <c r="F18" s="9" t="s">
         <v>40</v>
       </c>
@@ -5233,7 +5245,7 @@
       <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="31"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="9" t="s">
         <v>40</v>
       </c>
@@ -5255,7 +5267,7 @@
       <c r="D20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="30"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="9" t="s">
         <v>40</v>
       </c>
@@ -5277,7 +5289,7 @@
       <c r="D21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="39" t="s">
         <v>59</v>
       </c>
       <c r="F21" s="9" t="s">
@@ -5299,7 +5311,7 @@
       <c r="D22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="35"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="20" t="s">
         <v>39</v>
       </c>
@@ -5319,7 +5331,7 @@
       <c r="D23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="35"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="9" t="s">
         <v>39</v>
       </c>
@@ -5339,7 +5351,7 @@
       <c r="D24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="36"/>
+      <c r="E24" s="41"/>
       <c r="F24" s="9" t="s">
         <v>39</v>
       </c>
@@ -5359,7 +5371,7 @@
       <c r="D25" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="42" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="9" t="s">
@@ -5383,7 +5395,7 @@
       <c r="D26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="31"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="9" t="s">
         <v>40</v>
       </c>
@@ -5405,7 +5417,7 @@
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="31"/>
+      <c r="E27" s="43"/>
       <c r="F27" s="9" t="s">
         <v>40</v>
       </c>
@@ -5427,7 +5439,7 @@
       <c r="D28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="31"/>
+      <c r="E28" s="43"/>
       <c r="F28" s="9" t="s">
         <v>40</v>
       </c>
@@ -5449,7 +5461,7 @@
       <c r="D29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="30"/>
+      <c r="E29" s="44"/>
       <c r="F29" s="9" t="s">
         <v>40</v>
       </c>
@@ -5493,7 +5505,7 @@
       <c r="D31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="42" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -5517,7 +5529,7 @@
       <c r="D32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="31"/>
+      <c r="E32" s="43"/>
       <c r="F32" s="9" t="s">
         <v>40</v>
       </c>
@@ -5539,7 +5551,7 @@
       <c r="D33" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="31"/>
+      <c r="E33" s="43"/>
       <c r="F33" s="9" t="s">
         <v>40</v>
       </c>
@@ -5561,7 +5573,7 @@
       <c r="D34" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="30"/>
+      <c r="E34" s="44"/>
       <c r="F34" s="9" t="s">
         <v>40</v>
       </c>
@@ -5629,7 +5641,7 @@
       <c r="D37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="42" t="s">
         <v>59</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -5651,7 +5663,7 @@
       <c r="D38" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="31"/>
+      <c r="E38" s="43"/>
       <c r="F38" s="9" t="s">
         <v>39</v>
       </c>
@@ -5671,7 +5683,7 @@
       <c r="D39" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="30"/>
+      <c r="E39" s="44"/>
       <c r="F39" s="9" t="s">
         <v>39</v>
       </c>
@@ -5691,7 +5703,7 @@
       <c r="D40" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="42" t="s">
         <v>50</v>
       </c>
       <c r="F40" s="9" t="s">
@@ -5715,7 +5727,7 @@
       <c r="D41" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="31"/>
+      <c r="E41" s="43"/>
       <c r="F41" s="9" t="s">
         <v>40</v>
       </c>
@@ -5737,7 +5749,7 @@
       <c r="D42" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="31"/>
+      <c r="E42" s="43"/>
       <c r="F42" s="9" t="s">
         <v>40</v>
       </c>
@@ -5759,7 +5771,7 @@
       <c r="D43" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="31"/>
+      <c r="E43" s="43"/>
       <c r="F43" s="9" t="s">
         <v>40</v>
       </c>
@@ -5781,7 +5793,7 @@
       <c r="D44" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="31"/>
+      <c r="E44" s="43"/>
       <c r="F44" s="9" t="s">
         <v>40</v>
       </c>
@@ -5803,7 +5815,7 @@
       <c r="D45" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="31"/>
+      <c r="E45" s="43"/>
       <c r="F45" s="9" t="s">
         <v>40</v>
       </c>
@@ -5825,7 +5837,7 @@
       <c r="D46" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="31"/>
+      <c r="E46" s="43"/>
       <c r="F46" s="9" t="s">
         <v>40</v>
       </c>
@@ -5847,7 +5859,7 @@
       <c r="D47" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="31"/>
+      <c r="E47" s="43"/>
       <c r="F47" s="9" t="s">
         <v>40</v>
       </c>
@@ -5869,7 +5881,7 @@
       <c r="D48" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="31"/>
+      <c r="E48" s="43"/>
       <c r="F48" s="9" t="s">
         <v>40</v>
       </c>
@@ -5891,7 +5903,7 @@
       <c r="D49" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="31"/>
+      <c r="E49" s="43"/>
       <c r="F49" s="9" t="s">
         <v>40</v>
       </c>
@@ -5913,7 +5925,7 @@
       <c r="D50" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="30"/>
+      <c r="E50" s="44"/>
       <c r="F50" s="21" t="s">
         <v>40</v>
       </c>
@@ -5966,82 +5978,82 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
-      <c r="C53" s="40"/>
+      <c r="C53" s="26"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
-      <c r="H53" s="39"/>
+      <c r="H53" s="25"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
       <c r="B54" s="22"/>
-      <c r="C54" s="40"/>
+      <c r="C54" s="26"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
-      <c r="H54" s="39"/>
+      <c r="H54" s="25"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
-      <c r="C55" s="40"/>
+      <c r="C55" s="26"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
-      <c r="H55" s="39"/>
+      <c r="H55" s="25"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
-      <c r="C56" s="40"/>
+      <c r="C56" s="26"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
-      <c r="H56" s="39"/>
+      <c r="H56" s="25"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
       <c r="B57" s="22"/>
-      <c r="C57" s="40"/>
+      <c r="C57" s="26"/>
       <c r="D57" s="22"/>
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
-      <c r="H57" s="39"/>
+      <c r="H57" s="25"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
       <c r="B58" s="22"/>
-      <c r="C58" s="40"/>
+      <c r="C58" s="26"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
-      <c r="H58" s="39"/>
+      <c r="H58" s="25"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
       <c r="B59" s="22"/>
-      <c r="C59" s="40"/>
+      <c r="C59" s="26"/>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
-      <c r="H59" s="39"/>
+      <c r="H59" s="25"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
       <c r="B60" s="22"/>
-      <c r="C60" s="40"/>
+      <c r="C60" s="26"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
-      <c r="H60" s="39"/>
+      <c r="H60" s="25"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
@@ -6051,7 +6063,7 @@
       <c r="E61" s="22"/>
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
-      <c r="H61" s="39"/>
+      <c r="H61" s="25"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
@@ -6061,7 +6073,7 @@
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
       <c r="G62" s="22"/>
-      <c r="H62" s="39"/>
+      <c r="H62" s="25"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>
@@ -6071,7 +6083,7 @@
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
       <c r="G63" s="22"/>
-      <c r="H63" s="39"/>
+      <c r="H63" s="25"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="22"/>
@@ -6081,7 +6093,7 @@
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
       <c r="G64" s="22"/>
-      <c r="H64" s="39"/>
+      <c r="H64" s="25"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="22"/>
@@ -6091,7 +6103,7 @@
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
       <c r="G65" s="22"/>
-      <c r="H65" s="39"/>
+      <c r="H65" s="25"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="22"/>
@@ -6101,7 +6113,7 @@
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
-      <c r="H66" s="39"/>
+      <c r="H66" s="25"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="22"/>
@@ -6111,7 +6123,7 @@
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
-      <c r="H67" s="39"/>
+      <c r="H67" s="25"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="22"/>
@@ -6121,7 +6133,7 @@
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
-      <c r="H68" s="39"/>
+      <c r="H68" s="25"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="22"/>
@@ -6131,7 +6143,7 @@
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
       <c r="G69" s="22"/>
-      <c r="H69" s="39"/>
+      <c r="H69" s="25"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="22"/>
@@ -6141,7 +6153,7 @@
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
       <c r="G70" s="22"/>
-      <c r="H70" s="39"/>
+      <c r="H70" s="25"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
@@ -6151,19 +6163,19 @@
       <c r="E71" s="22"/>
       <c r="F71" s="22"/>
       <c r="G71" s="22"/>
-      <c r="H71" s="39"/>
+      <c r="H71" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="E25:E29"/>
     <mergeCell ref="E31:E34"/>
     <mergeCell ref="E37:E39"/>
     <mergeCell ref="E40:E50"/>
     <mergeCell ref="E9:E20"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="E21:E24"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="E25:E29"/>
   </mergeCells>
   <conditionalFormatting sqref="F25 F4:F6 F8:F9 F14:F16 F18:F22 F51 F27:F29 F31:F35">
     <cfRule type="cellIs" dxfId="76" priority="52" operator="equal">
@@ -6356,7 +6368,7 @@
   <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6371,26 +6383,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="38" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -6503,7 +6515,7 @@
       <c r="D7" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="42" t="s">
         <v>50</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -6525,7 +6537,7 @@
       <c r="D8" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E8" s="31"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="9" t="s">
         <v>40</v>
       </c>
@@ -6545,7 +6557,7 @@
       <c r="D9" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="E9" s="30"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="9" t="s">
         <v>40</v>
       </c>
@@ -6556,13 +6568,19 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>331</v>
+      </c>
       <c r="D10" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="9"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -6570,12 +6588,16 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>333</v>
+      </c>
       <c r="D11" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E11" s="46"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
@@ -6589,7 +6611,7 @@
       <c r="D12" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="E12" s="46"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
@@ -6603,7 +6625,7 @@
       <c r="D13" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="E13" s="46"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
@@ -6617,7 +6639,7 @@
       <c r="D14" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="E14" s="46"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
@@ -6631,7 +6653,7 @@
       <c r="D15" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="E15" s="46"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
@@ -6643,7 +6665,7 @@
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="46"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
@@ -6655,7 +6677,7 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="46"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
@@ -6667,7 +6689,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="46"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
@@ -6679,7 +6701,7 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="46"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
@@ -6691,7 +6713,7 @@
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="46"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
@@ -6703,7 +6725,7 @@
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="46"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
@@ -6715,7 +6737,7 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="46"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
@@ -6727,7 +6749,7 @@
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="46"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
@@ -6739,7 +6761,7 @@
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="46"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
@@ -6751,7 +6773,7 @@
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="46"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
@@ -6763,7 +6785,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="46"/>
+      <c r="E26" s="32"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
@@ -6781,7 +6803,7 @@
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="43" t="s">
+      <c r="E27" s="29" t="s">
         <v>59</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -6803,7 +6825,7 @@
       <c r="D28" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E28" s="44"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="9" t="s">
         <v>39</v>
       </c>
@@ -6823,7 +6845,7 @@
       <c r="D29" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E29" s="45"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="9" t="s">
         <v>39</v>
       </c>
@@ -6843,7 +6865,7 @@
       <c r="D30" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="27" t="s">
         <v>50</v>
       </c>
       <c r="F30" s="23" t="s">
@@ -6867,7 +6889,7 @@
       <c r="D31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="42"/>
+      <c r="E31" s="28"/>
       <c r="F31" s="9" t="s">
         <v>40</v>
       </c>
@@ -6889,7 +6911,7 @@
       <c r="D32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="42"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="9" t="s">
         <v>40</v>
       </c>
@@ -6949,7 +6971,7 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="41"/>
+      <c r="E35" s="27"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
@@ -6967,7 +6989,7 @@
       <c r="D36" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="42"/>
+      <c r="E36" s="28"/>
       <c r="F36" s="9" t="s">
         <v>39</v>
       </c>
@@ -7031,7 +7053,7 @@
       <c r="D39" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="41" t="s">
+      <c r="E39" s="27" t="s">
         <v>50</v>
       </c>
       <c r="F39" s="9" t="s">
@@ -7077,7 +7099,7 @@
       <c r="D41" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="E41" s="27" t="s">
         <v>59</v>
       </c>
       <c r="F41" s="9" t="s">
@@ -7099,7 +7121,7 @@
       <c r="D42" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E42" s="42"/>
+      <c r="E42" s="28"/>
       <c r="F42" s="9" t="s">
         <v>39</v>
       </c>
@@ -7119,7 +7141,7 @@
       <c r="D43" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E43" s="42"/>
+      <c r="E43" s="28"/>
       <c r="F43" s="9" t="s">
         <v>39</v>
       </c>
@@ -7139,7 +7161,7 @@
       <c r="D44" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E44" s="42"/>
+      <c r="E44" s="28"/>
       <c r="F44" s="9" t="s">
         <v>39</v>
       </c>
@@ -7159,7 +7181,7 @@
       <c r="D45" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="42"/>
+      <c r="E45" s="28"/>
       <c r="F45" s="9" t="s">
         <v>39</v>
       </c>
@@ -7245,7 +7267,7 @@
       <c r="D49" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="41" t="s">
+      <c r="E49" s="27" t="s">
         <v>59</v>
       </c>
       <c r="F49" s="9" t="s">
@@ -7269,7 +7291,7 @@
       <c r="D50" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="42"/>
+      <c r="E50" s="28"/>
       <c r="F50" s="9" t="s">
         <v>40</v>
       </c>
@@ -7291,7 +7313,7 @@
       <c r="D51" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="42"/>
+      <c r="E51" s="28"/>
       <c r="F51" s="9" t="s">
         <v>40</v>
       </c>
@@ -7335,7 +7357,7 @@
       <c r="D53" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="41" t="s">
+      <c r="E53" s="27" t="s">
         <v>50</v>
       </c>
       <c r="F53" s="9" t="s">
@@ -7389,7 +7411,7 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E7:E10"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
   </mergeCells>
@@ -7460,35 +7482,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F26">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F26">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"Skipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F26">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7521,26 +7543,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -7818,10 +7840,10 @@
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F18">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="334">
   <si>
     <t>Поле "Name:"</t>
   </si>
@@ -6368,7 +6368,7 @@
   <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6598,7 +6598,9 @@
         <v>320</v>
       </c>
       <c r="E11" s="32"/>
-      <c r="F11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:26" ht="30" x14ac:dyDescent="0.25">

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -6368,7 +6368,7 @@
   <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E7" sqref="E7:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6577,7 +6577,7 @@
       <c r="D10" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="E10" s="44"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
@@ -6597,7 +6597,7 @@
       <c r="D11" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E11" s="32"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
@@ -7413,9 +7413,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E7:E10"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="E7:E11"/>
   </mergeCells>
   <conditionalFormatting sqref="F35:F42 F33 F4 F27:F30">
     <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="334">
   <si>
     <t>Поле "Name:"</t>
   </si>
@@ -6167,15 +6167,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E40:E50"/>
+    <mergeCell ref="E9:E20"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E21:E24"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="E25:E29"/>
     <mergeCell ref="E31:E34"/>
     <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E40:E50"/>
-    <mergeCell ref="E9:E20"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="E21:E24"/>
   </mergeCells>
   <conditionalFormatting sqref="F25 F4:F6 F8:F9 F14:F16 F18:F22 F51 F27:F29 F31:F35">
     <cfRule type="cellIs" dxfId="76" priority="52" operator="equal">
@@ -6368,7 +6368,7 @@
   <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6614,7 +6614,9 @@
         <v>321</v>
       </c>
       <c r="E12" s="32"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.25">

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -6368,7 +6368,7 @@
   <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E7" sqref="E7:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6597,7 +6597,7 @@
       <c r="D11" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
@@ -6613,7 +6613,7 @@
       <c r="D12" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="E12" s="32"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="9" t="s">
         <v>40</v>
       </c>
@@ -7417,7 +7417,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="E7:E12"/>
   </mergeCells>
   <conditionalFormatting sqref="F35:F42 F33 F4 F27:F30">
     <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -6367,7 +6367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E7" sqref="E7:E12"/>
     </sheetView>
   </sheetViews>
@@ -6515,7 +6515,7 @@
       <c r="D7" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="27" t="s">
         <v>50</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -6537,7 +6537,7 @@
       <c r="D8" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E8" s="43"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="9" t="s">
         <v>40</v>
       </c>
@@ -6557,7 +6557,7 @@
       <c r="D9" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="E9" s="43"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="9" t="s">
         <v>40</v>
       </c>
@@ -6577,7 +6577,7 @@
       <c r="D10" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="E10" s="43"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
@@ -6597,7 +6597,7 @@
       <c r="D11" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E11" s="43"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
@@ -6613,7 +6613,7 @@
       <c r="D12" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="E12" s="44"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="9" t="s">
         <v>40</v>
       </c>
@@ -7414,10 +7414,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="E7:E12"/>
   </mergeCells>
   <conditionalFormatting sqref="F35:F42 F33 F4 F27:F30">
     <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -6367,7 +6367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E7" sqref="E7:E12"/>
     </sheetView>
   </sheetViews>
@@ -6515,7 +6515,7 @@
       <c r="D7" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="42" t="s">
         <v>50</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -6537,7 +6537,7 @@
       <c r="D8" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="9" t="s">
         <v>40</v>
       </c>
@@ -6557,7 +6557,7 @@
       <c r="D9" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="E9" s="28"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="9" t="s">
         <v>40</v>
       </c>
@@ -6577,7 +6577,7 @@
       <c r="D10" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
@@ -6597,7 +6597,7 @@
       <c r="D11" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
@@ -6613,7 +6613,7 @@
       <c r="D12" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="E12" s="19"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="9" t="s">
         <v>40</v>
       </c>
@@ -7414,9 +7414,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="E7:E12"/>
   </mergeCells>
   <conditionalFormatting sqref="F35:F42 F33 F4 F27:F30">
     <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="334">
   <si>
     <t>Поле "Name:"</t>
   </si>
@@ -6367,8 +6367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6613,10 +6613,8 @@
       <c r="D12" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -7417,7 +7415,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="E7:E11"/>
   </mergeCells>
   <conditionalFormatting sqref="F35:F42 F33 F4 F27:F30">
     <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -6368,7 +6368,7 @@
   <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6599,7 +6599,7 @@
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="9"/>
     </row>

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -6368,7 +6368,7 @@
   <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6579,7 +6579,7 @@
       </c>
       <c r="E10" s="43"/>
       <c r="F10" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="9"/>
     </row>

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -6368,7 +6368,7 @@
   <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6579,7 +6579,7 @@
       </c>
       <c r="E10" s="43"/>
       <c r="F10" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" s="9"/>
     </row>
@@ -6599,7 +6599,7 @@
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="9"/>
     </row>

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -6599,7 +6599,7 @@
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="9"/>
     </row>

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -6368,7 +6368,7 @@
   <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6559,7 +6559,7 @@
       </c>
       <c r="E9" s="43"/>
       <c r="F9" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="9"/>
     </row>

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -6559,7 +6559,7 @@
       </c>
       <c r="E9" s="43"/>
       <c r="F9" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" s="9"/>
     </row>

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -6368,7 +6368,7 @@
   <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6579,7 +6579,7 @@
       </c>
       <c r="E10" s="43"/>
       <c r="F10" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" s="9"/>
     </row>

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -6579,7 +6579,7 @@
       </c>
       <c r="E10" s="43"/>
       <c r="F10" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="9"/>
     </row>

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -6368,7 +6368,7 @@
   <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6579,7 +6579,7 @@
       </c>
       <c r="E10" s="43"/>
       <c r="F10" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" s="9"/>
     </row>
@@ -6599,7 +6599,7 @@
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="9" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="G11" s="9"/>
     </row>

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Требования к полям" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="337">
   <si>
     <t>Поле "Name:"</t>
   </si>
@@ -1055,10 +1055,19 @@
     <t>Ssff!!</t>
   </si>
   <si>
-    <t>Ввод пароля с одной буквой из кириллицы,  остальные символы соответствуют требованиям</t>
-  </si>
-  <si>
     <t>SsffЕ22!</t>
+  </si>
+  <si>
+    <t>обязательные поля *</t>
+  </si>
+  <si>
+    <t>Ввод пароля с одной буквой из кириллицы, остальные символы соответствуют требованиям</t>
+  </si>
+  <si>
+    <t>"steРan"</t>
+  </si>
+  <si>
+    <t>Данные вставились в поле</t>
   </si>
 </sst>
 </file>
@@ -3135,8 +3144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3320,7 +3329,7 @@
         <v>235</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>86</v>
+        <v>335</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>41</v>
@@ -3690,7 +3699,7 @@
         <v>41</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>39</v>
@@ -6367,8 +6376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6589,17 +6598,17 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>332</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>333</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>320</v>
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="9" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="G11" s="9"/>
     </row>
@@ -7861,10 +7870,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:A5"/>
+  <dimension ref="A4:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7879,6 +7888,11 @@
         <v>306</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Требования к полям" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="369">
   <si>
     <t>Поле "Name:"</t>
   </si>
@@ -297,9 +297,6 @@
     <t>"漢字汉字"</t>
   </si>
   <si>
-    <t>"SteРan"</t>
-  </si>
-  <si>
     <t>Bug report ID.6</t>
   </si>
   <si>
@@ -433,9 +430,6 @@
   </si>
   <si>
     <t>"Степаненко"</t>
-  </si>
-  <si>
-    <t>"SteРanenko"</t>
   </si>
   <si>
     <t>"Stepanenko234"</t>
@@ -992,82 +986,184 @@
     <t>Bug report ID.59</t>
   </si>
   <si>
-    <t>Ввод киррилических букв, остальные символы соответствуют требованиям</t>
-  </si>
-  <si>
-    <t>Ввод латинских букв, остальные символы соответствуют требованиям</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
     <t>Ssff22!</t>
   </si>
   <si>
-    <t>Windows 10 Pro Opera 77.0.4054.204</t>
-  </si>
-  <si>
-    <t>Windows 10 Pro Opera 77.0.4054.205</t>
-  </si>
-  <si>
-    <t>Windows 10 Pro Opera 77.0.4054.206</t>
-  </si>
-  <si>
-    <t>Windows 10 Pro Opera 77.0.4054.207</t>
-  </si>
-  <si>
-    <t>Windows 10 Pro Opera 77.0.4054.208</t>
-  </si>
-  <si>
-    <t>Windows 10 Pro Opera 77.0.4054.209</t>
-  </si>
-  <si>
-    <t>Windows 10 Pro Opera 77.0.4054.210</t>
-  </si>
-  <si>
-    <t>Windows 10 Pro Opera 77.0.4054.211</t>
-  </si>
-  <si>
-    <t>Windows 10 Pro Opera 77.0.4054.212</t>
-  </si>
-  <si>
-    <t>Windows 10 Pro Opera 77.0.4054.213</t>
-  </si>
-  <si>
-    <t>Ввод латинских букв только в верхнем регистре, остальные символы соответствуют требованиям</t>
-  </si>
-  <si>
-    <t>SSFF22!</t>
-  </si>
-  <si>
-    <t>ssff22!</t>
-  </si>
-  <si>
-    <t>Ввод латинских букв только в нижнем регистре, остальные символы соответствуют требованиям</t>
-  </si>
-  <si>
-    <t>Ссфф22!</t>
-  </si>
-  <si>
-    <t>Ввод пароля без цифры,  остальные символы соответствуют требованиям</t>
-  </si>
-  <si>
-    <t>Ssff!!</t>
-  </si>
-  <si>
-    <t>SsffЕ22!</t>
-  </si>
-  <si>
     <t>обязательные поля *</t>
   </si>
   <si>
-    <t>Ввод пароля с одной буквой из кириллицы, остальные символы соответствуют требованиям</t>
-  </si>
-  <si>
     <t>"steРan"</t>
   </si>
   <si>
     <t>Данные вставились в поле</t>
+  </si>
+  <si>
+    <t>"steРanenko"</t>
+  </si>
+  <si>
+    <t>Ssff2!</t>
+  </si>
+  <si>
+    <t>SSFF2!</t>
+  </si>
+  <si>
+    <t>ssff2!</t>
+  </si>
+  <si>
+    <t>Ссфф2!</t>
+  </si>
+  <si>
+    <t>SsffЕ2!</t>
+  </si>
+  <si>
+    <t>Ssff!</t>
+  </si>
+  <si>
+    <t>Ssff2</t>
+  </si>
+  <si>
+    <t>Ssff2!?</t>
+  </si>
+  <si>
+    <t>QWERTY</t>
+  </si>
+  <si>
+    <t>qwerty</t>
+  </si>
+  <si>
+    <t>admin admin</t>
+  </si>
+  <si>
+    <t>Ввести латинские буквы, остальные символы соответствуют требованиям</t>
+  </si>
+  <si>
+    <t>Ввести латинские буквы только в верхнем регистре, остальные символы соответствуют требованиям</t>
+  </si>
+  <si>
+    <t>Ввести латинские буквы только в нижнем регистре, остальные символы соответствуют требованиям</t>
+  </si>
+  <si>
+    <t>Ввести кириллические буквы, остальные символы соответствуют требованиям</t>
+  </si>
+  <si>
+    <t>Ввести пароль с одной буквой из кириллицы, остальные символы соответствуют требованиям</t>
+  </si>
+  <si>
+    <t>Ввести пароль без цифр, остальные символы соответствуют требованиям</t>
+  </si>
+  <si>
+    <t>Ввести пароль с двумя цифрами, остальные символы соответствуют требованиям</t>
+  </si>
+  <si>
+    <t>Ввести пароль без спец. символа, остальные символы соответствуют требованиям</t>
+  </si>
+  <si>
+    <t>Ввести пароль с двумя спец. символами, остальные символы соответствуют требованиям</t>
+  </si>
+  <si>
+    <t>Ввести только латинские буквы верхнего регистра</t>
+  </si>
+  <si>
+    <t>Ввести только латинские буквы нижнего регистра</t>
+  </si>
+  <si>
+    <t>Ввести только цифры</t>
+  </si>
+  <si>
+    <t>Ввести только пробелы</t>
+  </si>
+  <si>
+    <t>Ввести пробел перед паролем, остальные символы соответствуют требованиям</t>
+  </si>
+  <si>
+    <t>" Ssff2!"</t>
+  </si>
+  <si>
+    <t>Ввести пробел в середине пароля, остальные символы соответствуют требованиям</t>
+  </si>
+  <si>
+    <t>"Ssf f2!"</t>
+  </si>
+  <si>
+    <t>"Ssff2! "</t>
+  </si>
+  <si>
+    <t>Ввести пробел в конце пароля, остальные символы соответствуют требованиям</t>
+  </si>
+  <si>
+    <t>Вставить пароль из буфера обмена</t>
+  </si>
+  <si>
+    <t>Ввести пароль используя синтаксис других алфавитов</t>
+  </si>
+  <si>
+    <t>漢字汉字</t>
+  </si>
+  <si>
+    <t>Bug report ID.60</t>
+  </si>
+  <si>
+    <t>Bug report ID.61</t>
+  </si>
+  <si>
+    <t>Bug report ID.62</t>
+  </si>
+  <si>
+    <t>Bug report ID.63</t>
+  </si>
+  <si>
+    <t>Bug report ID.64</t>
+  </si>
+  <si>
+    <t>Ввести только спец. символы</t>
+  </si>
+  <si>
+    <t>@@@@@</t>
+  </si>
+  <si>
+    <t>Sf2!</t>
+  </si>
+  <si>
+    <t>Ssf2!</t>
+  </si>
+  <si>
+    <t>Ввести 31 символ соответствующий требованиям</t>
+  </si>
+  <si>
+    <t>Ввести 4 символа соответствующих требованиям</t>
+  </si>
+  <si>
+    <t>Ввести 5 символов соответствующих требованиям</t>
+  </si>
+  <si>
+    <t>Ssff2!Ssff2!Ssff2!Ssff2!Ssff2!Ssf</t>
+  </si>
+  <si>
+    <t>Ssff2!Ssff2!Ssff2!Ssff2!Ssff2!Ss</t>
+  </si>
+  <si>
+    <t>Ssff2!Ssff2!Ssff2!Ssff2!Ssff2!S</t>
+  </si>
+  <si>
+    <t>Ввести 32 символа соответствующих требованиям</t>
+  </si>
+  <si>
+    <t>Ввести 33 символа соответствующих требованиям</t>
+  </si>
+  <si>
+    <t>Ввести HTML-тег вместе с паролем</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "&lt;b&gt;Ssff2!&lt;/b&gt;"</t>
+  </si>
+  <si>
+    <t>Хинт "Password." отображается без орфографических ошибок</t>
+  </si>
+  <si>
+    <t>Проверить правильность написания хинта поля "Password"</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1283,9 +1379,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1305,23 +1398,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1364,6 +1442,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2648,46 +2732,46 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -3077,7 +3161,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3088,7 +3172,7 @@
         <v>11</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3099,7 +3183,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3110,7 +3194,7 @@
         <v>13</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3144,7 +3228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -3160,26 +3244,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -3212,7 +3296,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>63</v>
@@ -3237,7 +3321,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>66</v>
@@ -3245,7 +3329,7 @@
       <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="33" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -3262,15 +3346,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E6" s="40"/>
+        <v>160</v>
+      </c>
+      <c r="E6" s="34"/>
       <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
@@ -3282,15 +3366,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>68</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="41"/>
+        <v>160</v>
+      </c>
+      <c r="E7" s="35"/>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
@@ -3301,22 +3385,22 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="42" t="s">
+      <c r="D8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="20" t="s">
+      <c r="F8" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3326,19 +3410,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="43"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3348,7 +3432,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>85</v>
@@ -3356,11 +3440,11 @@
       <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="43"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3370,7 +3454,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>62</v>
@@ -3378,11 +3462,11 @@
       <c r="D11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3392,7 +3476,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>73</v>
@@ -3420,7 +3504,7 @@
       <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="36" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -3434,7 +3518,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>61</v>
@@ -3442,7 +3526,7 @@
       <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="43"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="9" t="s">
         <v>39</v>
       </c>
@@ -3454,7 +3538,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>74</v>
@@ -3462,7 +3546,7 @@
       <c r="D15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="44"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="9" t="s">
         <v>40</v>
       </c>
@@ -3476,7 +3560,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>75</v>
@@ -3498,7 +3582,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>76</v>
@@ -3506,14 +3590,14 @@
       <c r="D17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="36" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3522,7 +3606,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>77</v>
@@ -3530,12 +3614,12 @@
       <c r="D18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="44"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3544,7 +3628,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>78</v>
@@ -3552,7 +3636,7 @@
       <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="36" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -3566,15 +3650,15 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" s="43"/>
+        <v>160</v>
+      </c>
+      <c r="E20" s="37"/>
       <c r="F20" s="9" t="s">
         <v>39</v>
       </c>
@@ -3586,15 +3670,15 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E21" s="43"/>
+        <v>160</v>
+      </c>
+      <c r="E21" s="37"/>
       <c r="F21" s="9" t="s">
         <v>39</v>
       </c>
@@ -3606,15 +3690,15 @@
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="43"/>
+        <v>160</v>
+      </c>
+      <c r="E22" s="37"/>
       <c r="F22" s="9" t="s">
         <v>39</v>
       </c>
@@ -3626,7 +3710,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>82</v>
@@ -3634,7 +3718,7 @@
       <c r="D23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="43"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="9" t="s">
         <v>39</v>
       </c>
@@ -3646,7 +3730,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>83</v>
@@ -3654,7 +3738,7 @@
       <c r="D24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="44"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="9" t="s">
         <v>39</v>
       </c>
@@ -3666,7 +3750,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>84</v>
@@ -3681,7 +3765,7 @@
         <v>40</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3690,7 +3774,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>66</v>
@@ -3699,7 +3783,7 @@
         <v>41</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>39</v>
@@ -3712,22 +3796,22 @@
         <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="36" t="s">
         <v>59</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3736,20 +3820,20 @@
         <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="43"/>
+      <c r="E28" s="37"/>
       <c r="F28" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -3758,20 +3842,20 @@
         <v>26</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="37"/>
       <c r="F29" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -3780,20 +3864,20 @@
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="44"/>
+      <c r="E30" s="38"/>
       <c r="F30" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -3802,15 +3886,15 @@
         <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="36" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -3824,20 +3908,20 @@
         <v>29</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>121</v>
-      </c>
       <c r="D32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="44"/>
+      <c r="E32" s="38"/>
       <c r="F32" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3846,66 +3930,66 @@
         <v>30</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
     </row>
   </sheetData>
   <sortState ref="Z3:Z4">
@@ -4002,7 +4086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -4018,26 +4102,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -4070,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>63</v>
@@ -4079,7 +4163,7 @@
         <v>41</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>39</v>
@@ -4095,15 +4179,15 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -4120,15 +4204,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
@@ -4140,15 +4224,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="41"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
@@ -4159,23 +4243,23 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="42" t="s">
+      <c r="B8" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>153</v>
+      <c r="F8" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -4184,20 +4268,20 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>132</v>
+        <v>314</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="43"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>154</v>
+      <c r="G9" s="19" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -4206,7 +4290,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>85</v>
@@ -4214,12 +4298,12 @@
       <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="43"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="20" t="s">
-        <v>155</v>
+      <c r="G10" s="19" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -4228,7 +4312,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>62</v>
@@ -4236,12 +4320,12 @@
       <c r="D11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="20" t="s">
-        <v>156</v>
+      <c r="G11" s="19" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -4250,10 +4334,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>41</v>
@@ -4278,7 +4362,7 @@
       <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="36" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -4292,7 +4376,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>61</v>
@@ -4300,7 +4384,7 @@
       <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="43"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="9" t="s">
         <v>39</v>
       </c>
@@ -4312,20 +4396,20 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="44"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="20" t="s">
-        <v>157</v>
+      <c r="G15" s="19" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -4334,10 +4418,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>41</v>
@@ -4356,22 +4440,22 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="36" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4380,20 +4464,20 @@
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E18" s="44"/>
+        <v>160</v>
+      </c>
+      <c r="E18" s="38"/>
       <c r="F18" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4402,15 +4486,15 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="36" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -4424,15 +4508,15 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="43"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="9" t="s">
         <v>39</v>
       </c>
@@ -4444,15 +4528,15 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="43"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="9" t="s">
         <v>39</v>
       </c>
@@ -4464,15 +4548,15 @@
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="43"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="9" t="s">
         <v>39</v>
       </c>
@@ -4484,15 +4568,15 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E23" s="43"/>
+        <v>160</v>
+      </c>
+      <c r="E23" s="37"/>
       <c r="F23" s="9" t="s">
         <v>39</v>
       </c>
@@ -4504,15 +4588,15 @@
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E24" s="44"/>
+        <v>160</v>
+      </c>
+      <c r="E24" s="38"/>
       <c r="F24" s="9" t="s">
         <v>39</v>
       </c>
@@ -4524,10 +4608,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>41</v>
@@ -4539,7 +4623,7 @@
         <v>40</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4548,16 +4632,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>39</v>
@@ -4570,15 +4654,15 @@
         <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="36" t="s">
         <v>59</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -4592,15 +4676,15 @@
         <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" s="43"/>
+        <v>160</v>
+      </c>
+      <c r="E28" s="37"/>
       <c r="F28" s="9" t="s">
         <v>39</v>
       </c>
@@ -4612,15 +4696,15 @@
         <v>26</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E29" s="43"/>
+        <v>160</v>
+      </c>
+      <c r="E29" s="37"/>
       <c r="F29" s="9" t="s">
         <v>39</v>
       </c>
@@ -4632,15 +4716,15 @@
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="44"/>
+      <c r="E30" s="38"/>
       <c r="F30" s="9" t="s">
         <v>39</v>
       </c>
@@ -4652,22 +4736,22 @@
         <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="36" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4676,20 +4760,20 @@
         <v>29</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="44"/>
+      <c r="E32" s="38"/>
       <c r="F32" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4698,66 +4782,66 @@
         <v>30</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4848,8 +4932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4864,26 +4948,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -4916,16 +5000,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>39</v>
@@ -4947,7 +5031,7 @@
       <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="33" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -4964,15 +5048,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E6" s="40"/>
+        <v>160</v>
+      </c>
+      <c r="E6" s="34"/>
       <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
@@ -4984,15 +5068,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="40"/>
+        <v>160</v>
+      </c>
+      <c r="E7" s="34"/>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
@@ -5004,15 +5088,15 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="41"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="9" t="s">
         <v>39</v>
       </c>
@@ -5024,22 +5108,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="36" t="s">
         <v>50</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -5048,20 +5132,20 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="43"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -5070,20 +5154,20 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="43"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -5092,20 +5176,20 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="43"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -5114,20 +5198,20 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="43"/>
+      <c r="E13" s="37"/>
       <c r="F13" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -5136,20 +5220,20 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="43"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -5158,20 +5242,20 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="43"/>
+      <c r="E15" s="37"/>
       <c r="F15" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -5180,20 +5264,20 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="43"/>
+        <v>160</v>
+      </c>
+      <c r="E16" s="37"/>
       <c r="F16" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5202,20 +5286,20 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" s="43"/>
+        <v>160</v>
+      </c>
+      <c r="E17" s="37"/>
       <c r="F17" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5224,20 +5308,20 @@
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="43"/>
+      <c r="E18" s="37"/>
       <c r="F18" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5246,20 +5330,20 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="43"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5268,20 +5352,20 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="44"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5290,15 +5374,15 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="33" t="s">
         <v>59</v>
       </c>
       <c r="F21" s="9" t="s">
@@ -5311,20 +5395,20 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>188</v>
+      <c r="B22" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="20" t="s">
+      <c r="E22" s="34"/>
+      <c r="F22" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="20"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
@@ -5332,19 +5416,19 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="40"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="20"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
@@ -5352,19 +5436,19 @@
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="41"/>
+      <c r="E24" s="35"/>
       <c r="F24" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="20"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
@@ -5372,22 +5456,22 @@
         <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="36" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5396,20 +5480,20 @@
         <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="37"/>
       <c r="F26" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5418,20 +5502,20 @@
         <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="43"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5440,20 +5524,20 @@
         <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="43"/>
+      <c r="E28" s="37"/>
       <c r="F28" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5462,20 +5546,20 @@
         <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="44"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5484,10 +5568,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>41</v>
@@ -5506,22 +5590,22 @@
         <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="36" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5530,20 +5614,20 @@
         <v>29</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="43"/>
+      <c r="E32" s="37"/>
       <c r="F32" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5552,20 +5636,20 @@
         <v>30</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="43"/>
+      <c r="E33" s="37"/>
       <c r="F33" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5574,20 +5658,20 @@
         <v>31</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="44"/>
+      <c r="E34" s="38"/>
       <c r="F34" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5596,10 +5680,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>41</v>
@@ -5618,10 +5702,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>41</v>
@@ -5633,7 +5717,7 @@
         <v>40</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5642,15 +5726,15 @@
         <v>34</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="42" t="s">
+      <c r="E37" s="36" t="s">
         <v>59</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -5664,15 +5748,15 @@
         <v>35</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="43"/>
+      <c r="E38" s="37"/>
       <c r="F38" s="9" t="s">
         <v>39</v>
       </c>
@@ -5684,15 +5768,15 @@
         <v>36</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="44"/>
+      <c r="E39" s="38"/>
       <c r="F39" s="9" t="s">
         <v>39</v>
       </c>
@@ -5704,22 +5788,22 @@
         <v>37</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="36" t="s">
         <v>50</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5728,20 +5812,20 @@
         <v>38</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="43"/>
+      <c r="E41" s="37"/>
       <c r="F41" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5750,20 +5834,20 @@
         <v>39</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="43"/>
+      <c r="E42" s="37"/>
       <c r="F42" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5772,20 +5856,20 @@
         <v>40</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="43"/>
+      <c r="E43" s="37"/>
       <c r="F43" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5794,20 +5878,20 @@
         <v>41</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="43"/>
+      <c r="E44" s="37"/>
       <c r="F44" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5816,42 +5900,42 @@
         <v>42</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="43"/>
+      <c r="E45" s="37"/>
       <c r="F45" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="21">
+      <c r="A46" s="20">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="43"/>
+      <c r="E46" s="37"/>
       <c r="F46" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5860,20 +5944,20 @@
         <v>44</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="43"/>
+      <c r="E47" s="37"/>
       <c r="F47" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5882,20 +5966,20 @@
         <v>45</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="43"/>
+      <c r="E48" s="37"/>
       <c r="F48" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5904,20 +5988,20 @@
         <v>46</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="43"/>
+      <c r="E49" s="37"/>
       <c r="F49" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5925,21 +6009,21 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B50" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" s="44"/>
-      <c r="F50" s="21" t="s">
+      <c r="B50" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="38"/>
+      <c r="F50" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5948,16 +6032,16 @@
         <v>48</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>39</v>
@@ -5970,14 +6054,14 @@
         <v>49</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>39</v>
@@ -5985,194 +6069,194 @@
       <c r="G52" s="9"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="25"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="24"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="25"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="24"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="25"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="24"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="25"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="24"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="25"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="24"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="25"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="24"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="25"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="24"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="25"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="24"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="25"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="24"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="25"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="24"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="25"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="24"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="25"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="24"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="25"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="24"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="25"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="24"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="25"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="24"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="25"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="24"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="25"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="24"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="25"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="24"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="22"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="25"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6374,10 +6458,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z55"/>
+  <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6392,26 +6476,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>307</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -6444,16 +6528,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>39</v>
@@ -6475,14 +6559,14 @@
       <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>50</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Z5" t="s">
         <v>58</v>
@@ -6494,15 +6578,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="E6" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>59</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -6516,23 +6600,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="E7" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="36" t="s">
         <v>50</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="G7" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6541,16 +6627,18 @@
         <v>328</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="E8" s="43"/>
+        <v>160</v>
+      </c>
+      <c r="E8" s="37"/>
       <c r="F8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -6558,19 +6646,21 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E9" s="43"/>
+        <v>41</v>
+      </c>
+      <c r="E9" s="37"/>
       <c r="F9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -6581,16 +6671,18 @@
         <v>330</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="E10" s="43"/>
+        <v>41</v>
+      </c>
+      <c r="E10" s="37"/>
       <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
@@ -6598,32 +6690,42 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="E11" s="43"/>
+        <v>41</v>
+      </c>
+      <c r="E11" s="37"/>
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>310</v>
+      </c>
       <c r="D12" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -6631,13 +6733,21 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>321</v>
+      </c>
       <c r="D13" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -6645,783 +6755,686 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>322</v>
+      </c>
       <c r="D14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C17" s="9">
+        <v>123456</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="9"/>
+      <c r="B22" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="9"/>
+      <c r="B24" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="9"/>
+      <c r="B25" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="9"/>
+      <c r="B26" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>92</v>
+        <v>357</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>66</v>
+        <v>362</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>59</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="E27" s="34"/>
       <c r="F27" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>91</v>
+        <v>363</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>67</v>
+        <v>361</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" s="30"/>
+        <v>41</v>
+      </c>
+      <c r="E28" s="35"/>
       <c r="F28" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>93</v>
+        <v>364</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>68</v>
+        <v>360</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E29" s="31"/>
+        <v>41</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>50</v>
+      </c>
       <c r="F29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="28"/>
-      <c r="F36" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E42" s="28"/>
-      <c r="F42" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" s="9"/>
-    </row>
-    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E44" s="28"/>
-      <c r="F44" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" s="9"/>
-    </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" s="9"/>
-    </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G46" s="9"/>
-    </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G48" s="9"/>
-    </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" s="28"/>
-      <c r="F50" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E51" s="28"/>
-      <c r="F51" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E52" s="19"/>
-      <c r="F52" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G53" s="9"/>
-    </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E54" s="19"/>
-      <c r="F54" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>152</v>
-      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="24"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="E15:E22"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E26:E28"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="E7:E11"/>
@@ -7539,8 +7552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7554,26 +7567,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -7675,7 +7688,9 @@
         <v>4</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>325</v>
+      </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
         <v>41</v>
@@ -7880,17 +7895,17 @@
   <sheetData>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="369">
   <si>
     <t>Поле "Name:"</t>
   </si>
@@ -7553,7 +7553,7 @@
   <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7727,7 +7727,9 @@
       <c r="E9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="369">
   <si>
     <t>Поле "Name:"</t>
   </si>
@@ -7553,7 +7553,7 @@
   <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7743,7 +7743,9 @@
       <c r="E10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -7757,7 +7759,9 @@
       <c r="E11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:26" ht="30" x14ac:dyDescent="0.25">

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -1401,6 +1401,12 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1442,12 +1448,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2732,46 +2732,46 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -3244,26 +3244,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -3329,7 +3329,7 @@
       <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="35" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -3354,7 +3354,7 @@
       <c r="D6" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
@@ -3374,7 +3374,7 @@
       <c r="D7" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="35"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
@@ -3394,7 +3394,7 @@
       <c r="D8" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="38" t="s">
         <v>50</v>
       </c>
       <c r="F8" s="19" t="s">
@@ -3418,7 +3418,7 @@
       <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="37"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="9" t="s">
         <v>40</v>
       </c>
@@ -3440,7 +3440,7 @@
       <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
@@ -3462,7 +3462,7 @@
       <c r="D11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="38"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
@@ -3504,7 +3504,7 @@
       <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="38" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -3526,7 +3526,7 @@
       <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="37"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="9" t="s">
         <v>39</v>
       </c>
@@ -3546,7 +3546,7 @@
       <c r="D15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="38"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="9" t="s">
         <v>40</v>
       </c>
@@ -3590,7 +3590,7 @@
       <c r="D17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="38" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -3614,7 +3614,7 @@
       <c r="D18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="38"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="9" t="s">
         <v>40</v>
       </c>
@@ -3636,7 +3636,7 @@
       <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="38" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -3658,7 +3658,7 @@
       <c r="D20" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E20" s="37"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="9" t="s">
         <v>39</v>
       </c>
@@ -3678,7 +3678,7 @@
       <c r="D21" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E21" s="37"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="9" t="s">
         <v>39</v>
       </c>
@@ -3698,7 +3698,7 @@
       <c r="D22" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E22" s="37"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="9" t="s">
         <v>39</v>
       </c>
@@ -3718,7 +3718,7 @@
       <c r="D23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="37"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="9" t="s">
         <v>39</v>
       </c>
@@ -3738,7 +3738,7 @@
       <c r="D24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="38"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="9" t="s">
         <v>39</v>
       </c>
@@ -3804,7 +3804,7 @@
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="38" t="s">
         <v>59</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -3828,7 +3828,7 @@
       <c r="D28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="37"/>
+      <c r="E28" s="39"/>
       <c r="F28" s="9" t="s">
         <v>40</v>
       </c>
@@ -3850,7 +3850,7 @@
       <c r="D29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="37"/>
+      <c r="E29" s="39"/>
       <c r="F29" s="9" t="s">
         <v>40</v>
       </c>
@@ -3872,7 +3872,7 @@
       <c r="D30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="38"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="9" t="s">
         <v>40</v>
       </c>
@@ -3894,7 +3894,7 @@
       <c r="D31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="38" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -3916,7 +3916,7 @@
       <c r="D32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="38"/>
+      <c r="E32" s="40"/>
       <c r="F32" s="9" t="s">
         <v>40</v>
       </c>
@@ -4102,26 +4102,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -4187,7 +4187,7 @@
       <c r="D5" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="35" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -4212,7 +4212,7 @@
       <c r="D6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
@@ -4232,7 +4232,7 @@
       <c r="D7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="35"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
@@ -4252,7 +4252,7 @@
       <c r="D8" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="38" t="s">
         <v>50</v>
       </c>
       <c r="F8" s="19" t="s">
@@ -4276,7 +4276,7 @@
       <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="37"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="9" t="s">
         <v>40</v>
       </c>
@@ -4298,7 +4298,7 @@
       <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
@@ -4320,7 +4320,7 @@
       <c r="D11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="38"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
@@ -4362,7 +4362,7 @@
       <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="38" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -4384,7 +4384,7 @@
       <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="37"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="9" t="s">
         <v>39</v>
       </c>
@@ -4404,7 +4404,7 @@
       <c r="D15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="38"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="9" t="s">
         <v>40</v>
       </c>
@@ -4448,7 +4448,7 @@
       <c r="D17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="38" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -4472,7 +4472,7 @@
       <c r="D18" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E18" s="38"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="9" t="s">
         <v>40</v>
       </c>
@@ -4494,7 +4494,7 @@
       <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="38" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -4516,7 +4516,7 @@
       <c r="D20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="37"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="9" t="s">
         <v>39</v>
       </c>
@@ -4536,7 +4536,7 @@
       <c r="D21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="37"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="9" t="s">
         <v>39</v>
       </c>
@@ -4556,7 +4556,7 @@
       <c r="D22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="37"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="9" t="s">
         <v>39</v>
       </c>
@@ -4576,7 +4576,7 @@
       <c r="D23" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="37"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="9" t="s">
         <v>39</v>
       </c>
@@ -4596,7 +4596,7 @@
       <c r="D24" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E24" s="38"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="9" t="s">
         <v>39</v>
       </c>
@@ -4662,7 +4662,7 @@
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="38" t="s">
         <v>59</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -4684,7 +4684,7 @@
       <c r="D28" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E28" s="37"/>
+      <c r="E28" s="39"/>
       <c r="F28" s="9" t="s">
         <v>39</v>
       </c>
@@ -4704,7 +4704,7 @@
       <c r="D29" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E29" s="37"/>
+      <c r="E29" s="39"/>
       <c r="F29" s="9" t="s">
         <v>39</v>
       </c>
@@ -4724,7 +4724,7 @@
       <c r="D30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="38"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="9" t="s">
         <v>39</v>
       </c>
@@ -4744,7 +4744,7 @@
       <c r="D31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="38" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -4768,7 +4768,7 @@
       <c r="D32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="38"/>
+      <c r="E32" s="40"/>
       <c r="F32" s="9" t="s">
         <v>40</v>
       </c>
@@ -4948,26 +4948,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -5031,7 +5031,7 @@
       <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="35" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -5056,7 +5056,7 @@
       <c r="D6" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
@@ -5076,7 +5076,7 @@
       <c r="D7" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
@@ -5096,7 +5096,7 @@
       <c r="D8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="35"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="9" t="s">
         <v>39</v>
       </c>
@@ -5116,7 +5116,7 @@
       <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="38" t="s">
         <v>50</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -5140,7 +5140,7 @@
       <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
@@ -5162,7 +5162,7 @@
       <c r="D11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="37"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
@@ -5184,7 +5184,7 @@
       <c r="D12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="9" t="s">
         <v>40</v>
       </c>
@@ -5206,7 +5206,7 @@
       <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="37"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="9" t="s">
         <v>40</v>
       </c>
@@ -5228,7 +5228,7 @@
       <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="37"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="9" t="s">
         <v>40</v>
       </c>
@@ -5250,7 +5250,7 @@
       <c r="D15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="37"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="9" t="s">
         <v>40</v>
       </c>
@@ -5272,7 +5272,7 @@
       <c r="D16" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="37"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="9" t="s">
         <v>40</v>
       </c>
@@ -5294,7 +5294,7 @@
       <c r="D17" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E17" s="37"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="9" t="s">
         <v>40</v>
       </c>
@@ -5316,7 +5316,7 @@
       <c r="D18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="37"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="9" t="s">
         <v>40</v>
       </c>
@@ -5338,7 +5338,7 @@
       <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="37"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="9" t="s">
         <v>40</v>
       </c>
@@ -5360,7 +5360,7 @@
       <c r="D20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="38"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="9" t="s">
         <v>40</v>
       </c>
@@ -5382,7 +5382,7 @@
       <c r="D21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="35" t="s">
         <v>59</v>
       </c>
       <c r="F21" s="9" t="s">
@@ -5404,7 +5404,7 @@
       <c r="D22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="34"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="19" t="s">
         <v>39</v>
       </c>
@@ -5424,7 +5424,7 @@
       <c r="D23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="34"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="9" t="s">
         <v>39</v>
       </c>
@@ -5444,7 +5444,7 @@
       <c r="D24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="35"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="9" t="s">
         <v>39</v>
       </c>
@@ -5464,7 +5464,7 @@
       <c r="D25" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="38" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="9" t="s">
@@ -5488,7 +5488,7 @@
       <c r="D26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="37"/>
+      <c r="E26" s="39"/>
       <c r="F26" s="9" t="s">
         <v>40</v>
       </c>
@@ -5510,7 +5510,7 @@
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="37"/>
+      <c r="E27" s="39"/>
       <c r="F27" s="9" t="s">
         <v>40</v>
       </c>
@@ -5532,7 +5532,7 @@
       <c r="D28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="37"/>
+      <c r="E28" s="39"/>
       <c r="F28" s="9" t="s">
         <v>40</v>
       </c>
@@ -5554,7 +5554,7 @@
       <c r="D29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="38"/>
+      <c r="E29" s="40"/>
       <c r="F29" s="9" t="s">
         <v>40</v>
       </c>
@@ -5598,7 +5598,7 @@
       <c r="D31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="38" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -5622,7 +5622,7 @@
       <c r="D32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="37"/>
+      <c r="E32" s="39"/>
       <c r="F32" s="9" t="s">
         <v>40</v>
       </c>
@@ -5644,7 +5644,7 @@
       <c r="D33" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="37"/>
+      <c r="E33" s="39"/>
       <c r="F33" s="9" t="s">
         <v>40</v>
       </c>
@@ -5666,7 +5666,7 @@
       <c r="D34" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="38"/>
+      <c r="E34" s="40"/>
       <c r="F34" s="9" t="s">
         <v>40</v>
       </c>
@@ -5734,7 +5734,7 @@
       <c r="D37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="38" t="s">
         <v>59</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -5756,7 +5756,7 @@
       <c r="D38" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="37"/>
+      <c r="E38" s="39"/>
       <c r="F38" s="9" t="s">
         <v>39</v>
       </c>
@@ -5776,7 +5776,7 @@
       <c r="D39" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="38"/>
+      <c r="E39" s="40"/>
       <c r="F39" s="9" t="s">
         <v>39</v>
       </c>
@@ -5796,7 +5796,7 @@
       <c r="D40" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="38" t="s">
         <v>50</v>
       </c>
       <c r="F40" s="9" t="s">
@@ -5820,7 +5820,7 @@
       <c r="D41" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="37"/>
+      <c r="E41" s="39"/>
       <c r="F41" s="9" t="s">
         <v>40</v>
       </c>
@@ -5842,7 +5842,7 @@
       <c r="D42" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="37"/>
+      <c r="E42" s="39"/>
       <c r="F42" s="9" t="s">
         <v>40</v>
       </c>
@@ -5864,7 +5864,7 @@
       <c r="D43" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="37"/>
+      <c r="E43" s="39"/>
       <c r="F43" s="9" t="s">
         <v>40</v>
       </c>
@@ -5886,7 +5886,7 @@
       <c r="D44" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="37"/>
+      <c r="E44" s="39"/>
       <c r="F44" s="9" t="s">
         <v>40</v>
       </c>
@@ -5908,7 +5908,7 @@
       <c r="D45" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="37"/>
+      <c r="E45" s="39"/>
       <c r="F45" s="9" t="s">
         <v>40</v>
       </c>
@@ -5930,7 +5930,7 @@
       <c r="D46" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="37"/>
+      <c r="E46" s="39"/>
       <c r="F46" s="9" t="s">
         <v>40</v>
       </c>
@@ -5952,7 +5952,7 @@
       <c r="D47" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="37"/>
+      <c r="E47" s="39"/>
       <c r="F47" s="9" t="s">
         <v>40</v>
       </c>
@@ -5974,7 +5974,7 @@
       <c r="D48" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="37"/>
+      <c r="E48" s="39"/>
       <c r="F48" s="9" t="s">
         <v>40</v>
       </c>
@@ -5996,7 +5996,7 @@
       <c r="D49" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="37"/>
+      <c r="E49" s="39"/>
       <c r="F49" s="9" t="s">
         <v>40</v>
       </c>
@@ -6018,7 +6018,7 @@
       <c r="D50" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="38"/>
+      <c r="E50" s="40"/>
       <c r="F50" s="20" t="s">
         <v>40</v>
       </c>
@@ -6476,26 +6476,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -6574,7 +6574,7 @@
     </row>
     <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <f t="shared" ref="A6:A55" si="0">1+A5</f>
+        <f t="shared" ref="A6:A31" si="0">1+A5</f>
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -6608,7 +6608,7 @@
       <c r="D7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="38" t="s">
         <v>50</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -6632,7 +6632,7 @@
       <c r="D8" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="37"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="9" t="s">
         <v>40</v>
       </c>
@@ -6654,7 +6654,7 @@
       <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="37"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="9" t="s">
         <v>40</v>
       </c>
@@ -6676,7 +6676,7 @@
       <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
@@ -6698,7 +6698,7 @@
       <c r="D11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="37"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
@@ -6786,7 +6786,7 @@
       <c r="D15" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="35" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -6808,7 +6808,7 @@
       <c r="D16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="34"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="9" t="s">
         <v>40</v>
       </c>
@@ -6828,7 +6828,7 @@
       <c r="D17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="34"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="9" t="s">
         <v>40</v>
       </c>
@@ -6842,13 +6842,13 @@
       <c r="B18" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="27" t="s">
         <v>354</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="34"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="9" t="s">
         <v>40</v>
       </c>
@@ -6868,7 +6868,7 @@
       <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="34"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="9" t="s">
         <v>40</v>
       </c>
@@ -6888,7 +6888,7 @@
       <c r="D20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="34"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="9" t="s">
         <v>40</v>
       </c>
@@ -6908,7 +6908,7 @@
       <c r="D21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="34"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="9" t="s">
         <v>40</v>
       </c>
@@ -6928,7 +6928,7 @@
       <c r="D22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="35"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="9" t="s">
         <v>40</v>
       </c>
@@ -6970,7 +6970,7 @@
       <c r="D24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="35" t="s">
         <v>50</v>
       </c>
       <c r="F24" s="9" t="s">
@@ -6992,7 +6992,7 @@
       <c r="D25" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="35"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="9" t="s">
         <v>40</v>
       </c>
@@ -7012,7 +7012,7 @@
       <c r="D26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="35" t="s">
         <v>59</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -7034,7 +7034,7 @@
       <c r="D27" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E27" s="34"/>
+      <c r="E27" s="36"/>
       <c r="F27" s="9" t="s">
         <v>39</v>
       </c>
@@ -7054,7 +7054,7 @@
       <c r="D28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="35"/>
+      <c r="E28" s="37"/>
       <c r="F28" s="9" t="s">
         <v>39</v>
       </c>
@@ -7074,7 +7074,7 @@
       <c r="D29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="35" t="s">
         <v>50</v>
       </c>
       <c r="F29" s="9" t="s">
@@ -7096,7 +7096,7 @@
       <c r="D30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="35"/>
+      <c r="E30" s="37"/>
       <c r="F30" s="22" t="s">
         <v>40</v>
       </c>
@@ -7127,7 +7127,7 @@
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
-      <c r="E32" s="42"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
       <c r="H32" s="24"/>
@@ -7137,7 +7137,7 @@
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
-      <c r="E33" s="42"/>
+      <c r="E33" s="28"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
       <c r="H33" s="24"/>
@@ -7148,7 +7148,7 @@
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
-      <c r="E34" s="42"/>
+      <c r="E34" s="28"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
       <c r="H34" s="24"/>
@@ -7159,7 +7159,7 @@
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
-      <c r="E35" s="42"/>
+      <c r="E35" s="28"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
       <c r="H35" s="24"/>
@@ -7170,7 +7170,7 @@
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
-      <c r="E36" s="42"/>
+      <c r="E36" s="28"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
       <c r="H36" s="24"/>
@@ -7181,7 +7181,7 @@
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
-      <c r="E37" s="42"/>
+      <c r="E37" s="28"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
       <c r="H37" s="24"/>
@@ -7203,7 +7203,7 @@
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
-      <c r="E39" s="42"/>
+      <c r="E39" s="28"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
       <c r="H39" s="24"/>
@@ -7214,7 +7214,7 @@
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
-      <c r="E40" s="42"/>
+      <c r="E40" s="28"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
       <c r="H40" s="24"/>
@@ -7225,7 +7225,7 @@
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
-      <c r="E41" s="42"/>
+      <c r="E41" s="28"/>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
       <c r="H41" s="24"/>
@@ -7236,7 +7236,7 @@
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
-      <c r="E42" s="42"/>
+      <c r="E42" s="28"/>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
       <c r="H42" s="24"/>
@@ -7247,7 +7247,7 @@
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
-      <c r="E43" s="42"/>
+      <c r="E43" s="28"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
       <c r="H43" s="24"/>
@@ -7258,7 +7258,7 @@
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
-      <c r="E44" s="42"/>
+      <c r="E44" s="28"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
       <c r="H44" s="24"/>
@@ -7269,7 +7269,7 @@
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
-      <c r="E45" s="42"/>
+      <c r="E45" s="28"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
       <c r="H45" s="24"/>
@@ -7280,7 +7280,7 @@
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
-      <c r="E46" s="42"/>
+      <c r="E46" s="28"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
       <c r="H46" s="24"/>
@@ -7302,7 +7302,7 @@
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
-      <c r="E48" s="42"/>
+      <c r="E48" s="28"/>
       <c r="F48" s="21"/>
       <c r="G48" s="21"/>
       <c r="H48" s="24"/>
@@ -7313,7 +7313,7 @@
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
       <c r="D49" s="21"/>
-      <c r="E49" s="42"/>
+      <c r="E49" s="28"/>
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
       <c r="H49" s="24"/>
@@ -7324,7 +7324,7 @@
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
-      <c r="E50" s="42"/>
+      <c r="E50" s="28"/>
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
       <c r="H50" s="24"/>
@@ -7335,7 +7335,7 @@
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
       <c r="D51" s="21"/>
-      <c r="E51" s="42"/>
+      <c r="E51" s="28"/>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
       <c r="H51" s="24"/>
@@ -7346,7 +7346,7 @@
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
-      <c r="E52" s="42"/>
+      <c r="E52" s="28"/>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
       <c r="H52" s="24"/>
@@ -7357,7 +7357,7 @@
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
-      <c r="E53" s="42"/>
+      <c r="E53" s="28"/>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
       <c r="H53" s="24"/>
@@ -7368,7 +7368,7 @@
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
-      <c r="E54" s="42"/>
+      <c r="E54" s="28"/>
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
       <c r="H54" s="24"/>
@@ -7567,26 +7567,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -7760,7 +7760,7 @@
         <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7"/>
     </row>

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="369">
   <si>
     <t>Поле "Name:"</t>
   </si>
@@ -7759,9 +7759,7 @@
       <c r="E11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:26" ht="30" x14ac:dyDescent="0.25">

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="369">
   <si>
     <t>Поле "Name:"</t>
   </si>
@@ -7553,7 +7553,7 @@
   <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7743,9 +7743,7 @@
       <c r="E10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -7553,7 +7553,7 @@
   <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7728,7 +7728,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="7"/>
     </row>

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -7728,7 +7728,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" s="7"/>
     </row>

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Требования к полям" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="380">
   <si>
     <t>Поле "Name:"</t>
   </si>
@@ -1205,6 +1205,9 @@
   </si>
   <si>
     <t xml:space="preserve">При вводе текста "Placeholder text" пропадает </t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -7822,8 +7825,8 @@
   </sheetPr>
   <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="F11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8709,10 +8712,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A4:A7"/>
+  <dimension ref="A4:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8737,6 +8740,11 @@
         <v>368</v>
       </c>
     </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>379</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -980,9 +980,6 @@
     <t>Ssff22!</t>
   </si>
   <si>
-    <t>обязательные поля *</t>
-  </si>
-  <si>
     <t>"steРan"</t>
   </si>
   <si>
@@ -1208,6 +1205,9 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>Обязательные поля *</t>
   </si>
 </sst>
 </file>
@@ -3674,7 +3674,7 @@
         <v>229</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>40</v>
@@ -4044,7 +4044,7 @@
         <v>40</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>38</v>
@@ -4535,7 +4535,7 @@
         <v>229</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>40</v>
@@ -4905,7 +4905,7 @@
         <v>40</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>38</v>
@@ -6848,10 +6848,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>40</v>
@@ -6870,10 +6870,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>40</v>
@@ -6885,7 +6885,7 @@
         <v>39</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -6894,10 +6894,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>156</v>
@@ -6907,7 +6907,7 @@
         <v>39</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -6916,10 +6916,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>40</v>
@@ -6929,7 +6929,7 @@
         <v>39</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -6938,10 +6938,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>40</v>
@@ -6951,7 +6951,7 @@
         <v>39</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -6960,10 +6960,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>40</v>
@@ -6973,7 +6973,7 @@
         <v>39</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -6982,7 +6982,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>306</v>
@@ -7004,10 +7004,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>40</v>
@@ -7026,10 +7026,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>40</v>
@@ -7048,10 +7048,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>156</v>
@@ -7070,10 +7070,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>40</v>
@@ -7090,7 +7090,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C17" s="8">
         <v>123456</v>
@@ -7110,10 +7110,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>348</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>349</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>40</v>
@@ -7130,7 +7130,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>57</v>
@@ -7150,10 +7150,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>334</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>335</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>40</v>
@@ -7170,10 +7170,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>336</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>337</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>40</v>
@@ -7190,10 +7190,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>40</v>
@@ -7210,10 +7210,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>40</v>
@@ -7232,10 +7232,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>341</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>342</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>40</v>
@@ -7254,10 +7254,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>40</v>
@@ -7274,10 +7274,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>40</v>
@@ -7296,10 +7296,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>156</v>
@@ -7316,10 +7316,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>40</v>
@@ -7336,10 +7336,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>40</v>
@@ -7358,10 +7358,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>360</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>361</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>40</v>
@@ -7378,14 +7378,14 @@
         <v>28</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>38</v>
@@ -7965,10 +7965,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>40</v>
@@ -7985,10 +7985,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>40</v>
@@ -8005,10 +8005,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>40</v>
@@ -8027,7 +8027,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>42</v>
@@ -8036,7 +8036,7 @@
         <v>40</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>38</v>
@@ -8049,14 +8049,14 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>39</v>
@@ -8069,14 +8069,14 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>39</v>
@@ -8089,7 +8089,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>42</v>
@@ -8098,7 +8098,7 @@
         <v>40</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>38</v>
@@ -8715,7 +8715,7 @@
   <dimension ref="A4:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8732,17 +8732,17 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>307</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -18,7 +18,7 @@
     <sheet name="Email" sheetId="7" r:id="rId4"/>
     <sheet name="Password" sheetId="9" r:id="rId5"/>
     <sheet name="Все поля" sheetId="10" r:id="rId6"/>
-    <sheet name="Improve" sheetId="8" r:id="rId7"/>
+    <sheet name="Improvements" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="405">
   <si>
     <t>Поле "Name:"</t>
   </si>
@@ -680,9 +680,6 @@
     <t>Bug report ID.37</t>
   </si>
   <si>
-    <t>Добавить валидацию эмейлов</t>
-  </si>
-  <si>
     <t>Ввести латинские буквы в имени аккаунта</t>
   </si>
   <si>
@@ -957,9 +954,6 @@
   </si>
   <si>
     <t>Данные вставлены в поле</t>
-  </si>
-  <si>
-    <t>Привести хинты к общему образцу</t>
   </si>
   <si>
     <t>Тестирование поля "Password"</t>
@@ -1163,9 +1157,6 @@
     <t>Текст формы "IT Career Today web form" отображается без ошибок</t>
   </si>
   <si>
-    <t>через со сети гугл</t>
-  </si>
-  <si>
     <t>Petr
 Petrov
 petrov99@gmail.com
@@ -1204,10 +1195,94 @@
     <t xml:space="preserve">При вводе текста "Placeholder text" пропадает </t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Обязательные поля *</t>
+    <t>Проверить подсвечивание выбраного поля</t>
+  </si>
+  <si>
+    <t>Все поля подсвечиваются при нажатии на них</t>
+  </si>
+  <si>
+    <t>Bug report ID.65</t>
+  </si>
+  <si>
+    <t>Bug report ID.66</t>
+  </si>
+  <si>
+    <t>Bug report ID.67</t>
+  </si>
+  <si>
+    <t>Bug report ID.68</t>
+  </si>
+  <si>
+    <t>Bug report ID.69</t>
+  </si>
+  <si>
+    <t>Bug report ID.70</t>
+  </si>
+  <si>
+    <t>Bug report ID.71</t>
+  </si>
+  <si>
+    <t>Bug report ID.72</t>
+  </si>
+  <si>
+    <t>Bug report ID.73</t>
+  </si>
+  <si>
+    <t>Bug report ID.74</t>
+  </si>
+  <si>
+    <t>Bug report ID.75</t>
+  </si>
+  <si>
+    <t>Bug report ID.76</t>
+  </si>
+  <si>
+    <t>Bug report ID.77</t>
+  </si>
+  <si>
+    <t>Bug report ID.78</t>
+  </si>
+  <si>
+    <t>Bug report ID.79</t>
+  </si>
+  <si>
+    <t>Bug report ID.80</t>
+  </si>
+  <si>
+    <t>Bug report ID.81</t>
+  </si>
+  <si>
+    <t>Предложения по улучшению веб-формы "ITCareerToday web form"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Отметить обязательные к заполнению поля</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Добавить поле для повторного ввода пароля</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Добавить валидацию Email на уже зарегистрированный адрес</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Добавить inline-валидацию обязательных и необязательных полей</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Добавить возможность регистрации с помощью соц. сетей и гугл сервисов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Добавить капчу для защиты от автоматических регистраций на сайте</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Внедрить защиту от XSS и SQL-инъекций</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Добавить соответствующие описания к возникающим ошибкам в окне "Error"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Добавить описание к форме</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Привести placeholder-текст к единому образцу</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1486,6 +1561,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2984,7 +3078,7 @@
   <dimension ref="A2:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="B2" sqref="B2:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3489,7 +3583,7 @@
   </sheetPr>
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -3671,10 +3765,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>40</v>
@@ -4044,7 +4138,7 @@
         <v>40</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>38</v>
@@ -4191,14 +4285,14 @@
         <v>30</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>39</v>
@@ -4532,10 +4626,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>40</v>
@@ -4905,7 +4999,7 @@
         <v>40</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>38</v>
@@ -5046,7 +5140,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
@@ -5315,7 +5409,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>160</v>
@@ -5335,7 +5429,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>163</v>
@@ -5355,7 +5449,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>164</v>
@@ -5375,7 +5469,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>162</v>
@@ -5399,7 +5493,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>165</v>
@@ -5421,7 +5515,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>166</v>
@@ -5443,7 +5537,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>167</v>
@@ -5465,7 +5559,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>168</v>
@@ -5487,7 +5581,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>169</v>
@@ -5509,7 +5603,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>170</v>
@@ -5531,7 +5625,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>171</v>
@@ -5553,7 +5647,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>173</v>
@@ -5575,7 +5669,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>174</v>
@@ -5597,7 +5691,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>179</v>
@@ -5619,7 +5713,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>180</v>
@@ -5641,7 +5735,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>181</v>
@@ -5663,7 +5757,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>182</v>
@@ -5683,7 +5777,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>185</v>
@@ -5703,7 +5797,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>184</v>
@@ -5723,7 +5817,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>183</v>
@@ -5738,7 +5832,7 @@
         <v>39</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5760,7 +5854,7 @@
         <v>39</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5782,7 +5876,7 @@
         <v>39</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5791,7 +5885,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>191</v>
@@ -5804,7 +5898,7 @@
         <v>39</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5813,10 +5907,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>40</v>
@@ -5826,7 +5920,7 @@
         <v>39</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5835,10 +5929,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>40</v>
@@ -5857,10 +5951,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>232</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>40</v>
@@ -5872,7 +5966,7 @@
         <v>39</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5881,10 +5975,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>234</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>40</v>
@@ -5894,7 +5988,7 @@
         <v>39</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5903,10 +5997,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>40</v>
@@ -5916,7 +6010,7 @@
         <v>39</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5925,10 +6019,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>40</v>
@@ -5938,7 +6032,7 @@
         <v>39</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5947,10 +6041,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>40</v>
@@ -5969,10 +6063,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>40</v>
@@ -5984,7 +6078,7 @@
         <v>39</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5993,10 +6087,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>40</v>
@@ -6015,10 +6109,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>40</v>
@@ -6035,10 +6129,10 @@
         <v>36</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>40</v>
@@ -6055,10 +6149,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>40</v>
@@ -6070,7 +6164,7 @@
         <v>39</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6079,10 +6173,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>248</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>40</v>
@@ -6092,7 +6186,7 @@
         <v>39</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6101,10 +6195,10 @@
         <v>39</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>250</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>40</v>
@@ -6114,7 +6208,7 @@
         <v>39</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6123,10 +6217,10 @@
         <v>40</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>252</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>40</v>
@@ -6136,7 +6230,7 @@
         <v>39</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6145,10 +6239,10 @@
         <v>41</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>40</v>
@@ -6158,7 +6252,7 @@
         <v>39</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6167,10 +6261,10 @@
         <v>42</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>40</v>
@@ -6180,7 +6274,7 @@
         <v>39</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6189,10 +6283,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>40</v>
@@ -6202,7 +6296,7 @@
         <v>39</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6211,10 +6305,10 @@
         <v>44</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>40</v>
@@ -6224,7 +6318,7 @@
         <v>39</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6233,10 +6327,10 @@
         <v>45</v>
       </c>
       <c r="B48" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>40</v>
@@ -6246,7 +6340,7 @@
         <v>39</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -6255,10 +6349,10 @@
         <v>46</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>40</v>
@@ -6268,7 +6362,7 @@
         <v>39</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -6277,7 +6371,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>186</v>
@@ -6290,7 +6384,7 @@
         <v>39</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -6308,7 +6402,7 @@
         <v>40</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>38</v>
@@ -6321,14 +6415,14 @@
         <v>49</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>38</v>
@@ -6730,8 +6824,8 @@
   </sheetPr>
   <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6758,7 +6852,7 @@
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -6798,16 +6892,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>38</v>
@@ -6836,7 +6930,7 @@
         <v>39</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Z5" t="s">
         <v>54</v>
@@ -6848,10 +6942,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>40</v>
@@ -6870,10 +6964,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>40</v>
@@ -6885,7 +6979,7 @@
         <v>39</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -6894,10 +6988,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>156</v>
@@ -6907,7 +7001,7 @@
         <v>39</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -6916,10 +7010,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>40</v>
@@ -6929,7 +7023,7 @@
         <v>39</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -6938,10 +7032,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>40</v>
@@ -6951,7 +7045,7 @@
         <v>39</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -6960,10 +7054,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>40</v>
@@ -6973,7 +7067,7 @@
         <v>39</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -6982,10 +7076,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>40</v>
@@ -7004,10 +7098,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>40</v>
@@ -7018,7 +7112,9 @@
       <c r="F13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
@@ -7026,10 +7122,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>40</v>
@@ -7048,10 +7144,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>156</v>
@@ -7062,7 +7158,9 @@
       <c r="F15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
@@ -7070,10 +7168,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>40</v>
@@ -7082,7 +7180,9 @@
       <c r="F16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
@@ -7090,7 +7190,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C17" s="8">
         <v>123456</v>
@@ -7102,7 +7202,9 @@
       <c r="F17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
@@ -7110,10 +7212,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>40</v>
@@ -7122,7 +7224,9 @@
       <c r="F18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
@@ -7130,7 +7234,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>57</v>
@@ -7142,7 +7246,9 @@
       <c r="F19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
@@ -7150,10 +7256,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>40</v>
@@ -7162,7 +7268,9 @@
       <c r="F20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="8"/>
+      <c r="G20" s="8" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
@@ -7170,10 +7278,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>40</v>
@@ -7182,7 +7290,9 @@
       <c r="F21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="8"/>
+      <c r="G21" s="8" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
@@ -7190,10 +7300,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>40</v>
@@ -7202,7 +7312,9 @@
       <c r="F22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
@@ -7210,10 +7322,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>40</v>
@@ -7232,10 +7344,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>40</v>
@@ -7246,7 +7358,9 @@
       <c r="F24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="8"/>
+      <c r="G24" s="8" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
@@ -7254,10 +7368,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>40</v>
@@ -7266,7 +7380,9 @@
       <c r="F25" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="8"/>
+      <c r="G25" s="8" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
@@ -7274,10 +7390,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>40</v>
@@ -7296,10 +7412,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>156</v>
@@ -7316,10 +7432,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>40</v>
@@ -7336,10 +7452,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>40</v>
@@ -7350,7 +7466,9 @@
       <c r="F29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="8"/>
+      <c r="G29" s="8" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
@@ -7358,10 +7476,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>40</v>
@@ -7370,7 +7488,9 @@
       <c r="F30" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="18"/>
+      <c r="G30" s="8" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
@@ -7378,14 +7498,14 @@
         <v>28</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>38</v>
@@ -7825,8 +7945,8 @@
   </sheetPr>
   <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="F11:G11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7853,7 +7973,7 @@
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -7965,10 +8085,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>40</v>
@@ -7977,7 +8097,9 @@
       <c r="F7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -7985,10 +8107,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>40</v>
@@ -7997,7 +8119,9 @@
       <c r="F8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -8005,10 +8129,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>40</v>
@@ -8027,7 +8151,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>42</v>
@@ -8036,7 +8160,7 @@
         <v>40</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>38</v>
@@ -8049,19 +8173,21 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
@@ -8069,19 +8195,21 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
@@ -8089,7 +8217,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>42</v>
@@ -8098,21 +8226,31 @@
         <v>40</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+    <row r="14" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>11</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="8"/>
       <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -8712,40 +8850,252 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A4:A8"/>
+  <dimension ref="A2:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" style="42" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>378</v>
-      </c>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+    </row>
+    <row r="7" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>404</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>399</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>400</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>8</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>401</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>9</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>10</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>403</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:K4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" display="http://itcareer.pythonanywhere.com/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Требования к полям" sheetId="1" r:id="rId1"/>
+    <sheet name="Требования к форме" sheetId="1" r:id="rId1"/>
     <sheet name="Name" sheetId="2" r:id="rId2"/>
     <sheet name="Surname" sheetId="6" r:id="rId3"/>
     <sheet name="Email" sheetId="7" r:id="rId4"/>
@@ -1456,7 +1456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1574,12 +1574,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3078,7 +3077,7 @@
   <dimension ref="A2:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K4"/>
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3583,7 +3582,7 @@
   </sheetPr>
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -4444,7 +4443,7 @@
   </sheetPr>
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -5293,7 +5292,7 @@
   </sheetPr>
   <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -7946,7 +7945,7 @@
   <dimension ref="A1:Z59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8853,16 +8852,16 @@
   <dimension ref="A2:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="42" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
         <v>394</v>
       </c>
@@ -8876,7 +8875,7 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -8888,7 +8887,7 @@
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="25" t="s">
         <v>21</v>
       </c>
@@ -8904,190 +8903,210 @@
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
     </row>
-    <row r="7" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="C7" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="43"/>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="43"/>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+    </row>
+    <row r="8" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="C8" s="45" t="s">
         <v>395</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+    </row>
+    <row r="9" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
         <v>2</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="C9" s="45" t="s">
         <v>396</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+    </row>
+    <row r="10" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
         <v>3</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="C10" s="45" t="s">
         <v>397</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+    </row>
+    <row r="11" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
         <v>4</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="C11" s="46" t="s">
         <v>398</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
       <c r="I11" s="46"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+    </row>
+    <row r="12" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
         <v>5</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="C12" s="45" t="s">
         <v>404</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+    </row>
+    <row r="13" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
         <v>6</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="C13" s="45" t="s">
         <v>399</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+    </row>
+    <row r="14" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
         <v>7</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="C14" s="45" t="s">
         <v>400</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+    </row>
+    <row r="15" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
         <v>8</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="C15" s="46" t="s">
         <v>401</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+    </row>
+    <row r="16" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
         <v>9</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="C16" s="45" t="s">
         <v>402</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
         <v>10</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="C17" s="45" t="s">
         <v>403</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C13:K13"/>
     <mergeCell ref="B2:K3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:K4"/>

--- a/HW_Form_testing_(Check-list).xlsx
+++ b/HW_Form_testing_(Check-list).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Требования к форме" sheetId="1" r:id="rId1"/>
@@ -6824,7 +6824,7 @@
   <dimension ref="A1:Z59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7944,8 +7944,8 @@
   </sheetPr>
   <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8068,7 +8068,7 @@
         <v>49</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="E6" s="37" t="s">
         <v>47</v>
@@ -8156,7 +8156,7 @@
         <v>42</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>371</v>
@@ -8851,7 +8851,7 @@
   </sheetPr>
   <dimension ref="A2:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
